--- a/opm_hero_property/heroes/33.xlsx
+++ b/opm_hero_property/heroes/33.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1197,7 +1198,7 @@
         <v>10964</v>
       </c>
       <c r="D4" t="n">
-        <v>10964</v>
+        <v>11631</v>
       </c>
       <c r="E4" t="n">
         <v>255</v>
@@ -1304,7 +1305,7 @@
         <v>12057</v>
       </c>
       <c r="D5" t="n">
-        <v>12057</v>
+        <v>13480</v>
       </c>
       <c r="E5" t="n">
         <v>382</v>
@@ -1411,7 +1412,7 @@
         <v>13343</v>
       </c>
       <c r="D6" t="n">
-        <v>13343</v>
+        <v>15655</v>
       </c>
       <c r="E6" t="n">
         <v>524</v>
@@ -1518,7 +1519,7 @@
         <v>14822</v>
       </c>
       <c r="D7" t="n">
-        <v>14822</v>
+        <v>20195</v>
       </c>
       <c r="E7" t="n">
         <v>982</v>
@@ -1625,7 +1626,7 @@
         <v>16493</v>
       </c>
       <c r="D8" t="n">
-        <v>16493</v>
+        <v>26476</v>
       </c>
       <c r="E8" t="n">
         <v>1455</v>
@@ -1732,7 +1733,7 @@
         <v>18422</v>
       </c>
       <c r="D9" t="n">
-        <v>18422</v>
+        <v>34931</v>
       </c>
       <c r="E9" t="n">
         <v>1920</v>
@@ -1839,7 +1840,7 @@
         <v>19450</v>
       </c>
       <c r="D10" t="n">
-        <v>19450</v>
+        <v>41973</v>
       </c>
       <c r="E10" t="n">
         <v>2270</v>
@@ -1946,7 +1947,7 @@
         <v>20672</v>
       </c>
       <c r="D11" t="n">
-        <v>20672</v>
+        <v>50619</v>
       </c>
       <c r="E11" t="n">
         <v>2648</v>
@@ -2053,7 +2054,7 @@
         <v>23243</v>
       </c>
       <c r="D12" t="n">
-        <v>23243</v>
+        <v>66007</v>
       </c>
       <c r="E12" t="n">
         <v>3259</v>
@@ -2160,7 +2161,7 @@
         <v>23758</v>
       </c>
       <c r="D13" t="n">
-        <v>23758</v>
+        <v>68182</v>
       </c>
       <c r="E13" t="n">
         <v>3666</v>
@@ -2267,7 +2268,7 @@
         <v>24272</v>
       </c>
       <c r="D14" t="n">
-        <v>24272</v>
+        <v>70357</v>
       </c>
       <c r="E14" t="n">
         <v>4073</v>
@@ -2374,7 +2375,7 @@
         <v>24786</v>
       </c>
       <c r="D15" t="n">
-        <v>24786</v>
+        <v>72532</v>
       </c>
       <c r="E15" t="n">
         <v>4481</v>
@@ -2481,7 +2482,7 @@
         <v>25301</v>
       </c>
       <c r="D16" t="n">
-        <v>25301</v>
+        <v>74707</v>
       </c>
       <c r="E16" t="n">
         <v>4888</v>
@@ -2588,7 +2589,7 @@
         <v>25815</v>
       </c>
       <c r="D17" t="n">
-        <v>25815</v>
+        <v>76882</v>
       </c>
       <c r="E17" t="n">
         <v>5296</v>
@@ -6534,4 +6535,2652 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>33</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>29490.5342324</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5255.9752885</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2206.1213735</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2700</v>
+      </c>
+      <c r="X2" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>800</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>33</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>41869.6212825</v>
+      </c>
+      <c r="U3" t="n">
+        <v>7400.543599000001</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3499.264804</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2700</v>
+      </c>
+      <c r="X3" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>800</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>33</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>76707.77052599999</v>
+      </c>
+      <c r="U4" t="n">
+        <v>12751.81125</v>
+      </c>
+      <c r="V4" t="n">
+        <v>7661.171998</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2700</v>
+      </c>
+      <c r="X4" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>800</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>33</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>76707.77052599999</v>
+      </c>
+      <c r="U5" t="n">
+        <v>12751.81125</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7661.171998</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2780</v>
+      </c>
+      <c r="X5" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>800</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1260</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>33</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>68264.32614600001</v>
+      </c>
+      <c r="U6" t="n">
+        <v>11698.84875</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6726.064258</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2180</v>
+      </c>
+      <c r="X6" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>800</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1260</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>33</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>283609.9991742</v>
+      </c>
+      <c r="U7" t="n">
+        <v>43516.21884</v>
+      </c>
+      <c r="V7" t="n">
+        <v>34049.3292533</v>
+      </c>
+      <c r="W7" t="n">
+        <v>4220</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2340</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>33</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>244948.2573282</v>
+      </c>
+      <c r="U8" t="n">
+        <v>39116.96964</v>
+      </c>
+      <c r="V8" t="n">
+        <v>29057.7605243</v>
+      </c>
+      <c r="W8" t="n">
+        <v>3620</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2340</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>33</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>257835.5046102</v>
+      </c>
+      <c r="U9" t="n">
+        <v>40583.38604</v>
+      </c>
+      <c r="V9" t="n">
+        <v>30721.6167673</v>
+      </c>
+      <c r="W9" t="n">
+        <v>3820</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2340</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>33</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>270722.7518922</v>
+      </c>
+      <c r="U10" t="n">
+        <v>42049.80244</v>
+      </c>
+      <c r="V10" t="n">
+        <v>32385.4730103</v>
+      </c>
+      <c r="W10" t="n">
+        <v>4020</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2340</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>33</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>283609.9991742</v>
+      </c>
+      <c r="U11" t="n">
+        <v>43516.21884</v>
+      </c>
+      <c r="V11" t="n">
+        <v>34049.3292533</v>
+      </c>
+      <c r="W11" t="n">
+        <v>4220</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2340</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>33</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>283609.9991742</v>
+      </c>
+      <c r="U12" t="n">
+        <v>43516.21884</v>
+      </c>
+      <c r="V12" t="n">
+        <v>34049.3292533</v>
+      </c>
+      <c r="W12" t="n">
+        <v>4140</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2280</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>33</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>422886.7656694</v>
+      </c>
+      <c r="U13" t="n">
+        <v>64533.240224</v>
+      </c>
+      <c r="V13" t="n">
+        <v>57625.8419862</v>
+      </c>
+      <c r="W13" t="n">
+        <v>4300</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2400</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>33</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>422886.7656694</v>
+      </c>
+      <c r="U14" t="n">
+        <v>64533.240224</v>
+      </c>
+      <c r="V14" t="n">
+        <v>57625.8419862</v>
+      </c>
+      <c r="W14" t="n">
+        <v>4380</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2460</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>33</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>1029480.7285364</v>
+      </c>
+      <c r="U15" t="n">
+        <v>157243.445106</v>
+      </c>
+      <c r="V15" t="n">
+        <v>161259.7937</v>
+      </c>
+      <c r="W15" t="n">
+        <v>4700</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2700</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>33</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>5371899.7778618</v>
+      </c>
+      <c r="U16" t="n">
+        <v>811189.4530724999</v>
+      </c>
+      <c r="V16" t="n">
+        <v>820431.2729638</v>
+      </c>
+      <c r="W16" t="n">
+        <v>5340</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>3180</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>33</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>8785977.580996901</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1326222.5002275</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1333101.1627816</v>
+      </c>
+      <c r="W17" t="n">
+        <v>6380</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>3960</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>33</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>229660.7904065</v>
+      </c>
+      <c r="U18" t="n">
+        <v>40036.220675</v>
+      </c>
+      <c r="V18" t="n">
+        <v>26455.8796188</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2180</v>
+      </c>
+      <c r="X18" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>800</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1260</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>33</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>311961.1761172</v>
+      </c>
+      <c r="U19" t="n">
+        <v>51670.896944</v>
+      </c>
+      <c r="V19" t="n">
+        <v>37909.0814274</v>
+      </c>
+      <c r="W19" t="n">
+        <v>3740</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2280</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>33</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>405968.0376758</v>
+      </c>
+      <c r="U20" t="n">
+        <v>63979.2115365</v>
+      </c>
+      <c r="V20" t="n">
+        <v>54730.6426141</v>
+      </c>
+      <c r="W20" t="n">
+        <v>4020</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2340</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>33</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>471130.1119163</v>
+      </c>
+      <c r="U21" t="n">
+        <v>74853.84115200001</v>
+      </c>
+      <c r="V21" t="n">
+        <v>66094.11131589999</v>
+      </c>
+      <c r="W21" t="n">
+        <v>4380</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>2460</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>33</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>543318.04816</v>
+      </c>
+      <c r="U22" t="n">
+        <v>90353.127647</v>
+      </c>
+      <c r="V22" t="n">
+        <v>80648.8321171</v>
+      </c>
+      <c r="W22" t="n">
+        <v>4700</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>2700</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>33</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>690999.1468060999</v>
+      </c>
+      <c r="U23" t="n">
+        <v>122180.1131825</v>
+      </c>
+      <c r="V23" t="n">
+        <v>110167.9817414</v>
+      </c>
+      <c r="W23" t="n">
+        <v>5340</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>3180</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/33.xlsx
+++ b/opm_hero_property/heroes/33.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6737,6 +6737,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6745,31 +6785,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -6781,106 +6821,130 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>29490.5342324</v>
+        <v>5506776.7778618</v>
       </c>
       <c r="U2" t="n">
-        <v>5255.9752885</v>
+        <v>834917.4530724999</v>
       </c>
       <c r="V2" t="n">
-        <v>2206.1213735</v>
+        <v>842271.2729638</v>
       </c>
       <c r="W2" t="n">
-        <v>2700</v>
+        <v>5340</v>
       </c>
       <c r="X2" t="n">
-        <v>800</v>
+        <v>1440</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
-        <v>800</v>
+        <v>1440</v>
       </c>
       <c r="AA2" t="n">
-        <v>1200</v>
+        <v>3180</v>
       </c>
       <c r="AB2" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>400</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>81</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>11322788.192</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>2201419.9316039</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2007622</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>16127141.0236039</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -6892,73 +6956,97 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>41869.6212825</v>
+        <v>690999.1468060999</v>
       </c>
       <c r="U3" t="n">
-        <v>7400.543599000001</v>
+        <v>122180.1131825</v>
       </c>
       <c r="V3" t="n">
-        <v>3499.264804</v>
+        <v>110167.9817414</v>
       </c>
       <c r="W3" t="n">
-        <v>2700</v>
+        <v>5340</v>
       </c>
       <c r="X3" t="n">
-        <v>800</v>
+        <v>1440</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>800</v>
+        <v>1440</v>
       </c>
       <c r="AA3" t="n">
-        <v>1200</v>
+        <v>3180</v>
       </c>
       <c r="AB3" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>1283810.1213</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>250518.4514784001</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>466485.6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2183881.8227784</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6967,16 +7055,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6985,10 +7073,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7003,10 +7091,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7017,50 +7105,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>76707.77052599999</v>
+        <v>7518.9172</v>
       </c>
       <c r="U4" t="n">
-        <v>12751.81125</v>
+        <v>1529.2167</v>
       </c>
       <c r="V4" t="n">
-        <v>7661.171998</v>
+        <v>597.0454999999999</v>
       </c>
       <c r="W4" t="n">
-        <v>2700</v>
+        <v>600</v>
       </c>
       <c r="X4" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="AA4" t="n">
-        <v>1200</v>
+        <v>240</v>
       </c>
       <c r="AB4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7070,6 +7158,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>18780.674055</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4456.85</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>23237.524055</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7078,16 +7190,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7096,13 +7208,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7114,10 +7226,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7128,59 +7240,83 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>76707.77052599999</v>
+        <v>20132.7225</v>
       </c>
       <c r="U5" t="n">
-        <v>12751.81125</v>
+        <v>3801.9858</v>
       </c>
       <c r="V5" t="n">
-        <v>7661.171998</v>
+        <v>1837.612</v>
       </c>
       <c r="W5" t="n">
-        <v>2780</v>
+        <v>777</v>
       </c>
       <c r="X5" t="n">
-        <v>800</v>
+        <v>320</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>800</v>
+        <v>320</v>
       </c>
       <c r="AA5" t="n">
-        <v>1260</v>
+        <v>480</v>
       </c>
       <c r="AB5" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>47873.94352</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11828.8</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>59702.74352</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7204,16 +7340,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7235,39 +7371,39 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>68264.32614600001</v>
+        <v>56982.878</v>
       </c>
       <c r="U6" t="n">
-        <v>11698.84875</v>
+        <v>9783.75</v>
       </c>
       <c r="V6" t="n">
-        <v>6726.064258</v>
+        <v>5894.894</v>
       </c>
       <c r="W6" t="n">
-        <v>2180</v>
+        <v>1300</v>
       </c>
       <c r="X6" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="AA6" t="n">
-        <v>1260</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7282,16 +7418,40 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>115072.2935</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9406.6</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>163321.3935</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7300,31 +7460,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7336,10 +7496,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7350,59 +7510,83 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>283609.9991742</v>
+        <v>56982.878</v>
       </c>
       <c r="U7" t="n">
-        <v>43516.21884</v>
+        <v>9783.75</v>
       </c>
       <c r="V7" t="n">
-        <v>34049.3292533</v>
+        <v>5894.894</v>
       </c>
       <c r="W7" t="n">
-        <v>4220</v>
+        <v>1380</v>
       </c>
       <c r="X7" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="AA7" t="n">
-        <v>2340</v>
+        <v>960</v>
       </c>
       <c r="AB7" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>115072.2935</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9589.6</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>163504.3935</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7411,31 +7595,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7447,10 +7631,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7461,59 +7645,83 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>244948.2573282</v>
+        <v>57264.326146</v>
       </c>
       <c r="U8" t="n">
-        <v>39116.96964</v>
+        <v>9818.848749999999</v>
       </c>
       <c r="V8" t="n">
-        <v>29057.7605243</v>
+        <v>5926.064258</v>
       </c>
       <c r="W8" t="n">
-        <v>3620</v>
+        <v>1380</v>
       </c>
       <c r="X8" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="AA8" t="n">
-        <v>2340</v>
+        <v>960</v>
       </c>
       <c r="AB8" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>115072.2935</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>702.8585045000001</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9589.6</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>164207.2520045</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7537,7 +7745,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7546,7 +7754,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7568,24 +7776,24 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>257835.5046102</v>
+        <v>242870.5326</v>
       </c>
       <c r="U9" t="n">
-        <v>40583.38604</v>
+        <v>39127.328</v>
       </c>
       <c r="V9" t="n">
-        <v>30721.6167673</v>
+        <v>29018.3749</v>
       </c>
       <c r="W9" t="n">
-        <v>3820</v>
+        <v>3620</v>
       </c>
       <c r="X9" t="n">
         <v>1440</v>
@@ -7618,13 +7826,37 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>523967.901475</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>692526.7514750001</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7648,7 +7880,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -7657,7 +7889,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -7679,24 +7911,24 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>270722.7518922</v>
+        <v>244159.2573282</v>
       </c>
       <c r="U10" t="n">
-        <v>42049.80244</v>
+        <v>39273.96964</v>
       </c>
       <c r="V10" t="n">
-        <v>32385.4730103</v>
+        <v>29184.7605243</v>
       </c>
       <c r="W10" t="n">
-        <v>4020</v>
+        <v>3620</v>
       </c>
       <c r="X10" t="n">
         <v>1440</v>
@@ -7729,13 +7961,37 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>523967.901475</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3257.269383925</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>695784.0208589251</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7759,7 +8015,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -7768,7 +8024,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -7790,24 +8046,24 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>283609.9991742</v>
+        <v>257046.5046102</v>
       </c>
       <c r="U11" t="n">
-        <v>43516.21884</v>
+        <v>40740.38604</v>
       </c>
       <c r="V11" t="n">
-        <v>34049.3292533</v>
+        <v>30848.6167673</v>
       </c>
       <c r="W11" t="n">
-        <v>4220</v>
+        <v>3820</v>
       </c>
       <c r="X11" t="n">
         <v>1440</v>
@@ -7840,13 +8096,37 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>523967.901475</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>36159.963223175</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>728686.714698175</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7870,13 +8150,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -7901,24 +8181,24 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>283609.9991742</v>
+        <v>269933.7518922</v>
       </c>
       <c r="U12" t="n">
-        <v>43516.21884</v>
+        <v>42206.80244</v>
       </c>
       <c r="V12" t="n">
-        <v>34049.3292533</v>
+        <v>32512.4730103</v>
       </c>
       <c r="W12" t="n">
-        <v>4140</v>
+        <v>4020</v>
       </c>
       <c r="X12" t="n">
         <v>1440</v>
@@ -7930,7 +8210,7 @@
         <v>1440</v>
       </c>
       <c r="AA12" t="n">
-        <v>2280</v>
+        <v>2340</v>
       </c>
       <c r="AB12" t="n">
         <v>720</v>
@@ -7948,7 +8228,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -7958,6 +8238,30 @@
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>523967.901475</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>69062.657062425</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>761589.4085374251</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7966,10 +8270,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -7984,13 +8288,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8002,10 +8306,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8016,20 +8320,20 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>422886.7656694</v>
+        <v>282820.9991742</v>
       </c>
       <c r="U13" t="n">
-        <v>64533.240224</v>
+        <v>43673.21884</v>
       </c>
       <c r="V13" t="n">
-        <v>57625.8419862</v>
+        <v>34176.3292533</v>
       </c>
       <c r="W13" t="n">
-        <v>4300</v>
+        <v>4220</v>
       </c>
       <c r="X13" t="n">
         <v>1440</v>
@@ -8041,7 +8345,7 @@
         <v>1440</v>
       </c>
       <c r="AA13" t="n">
-        <v>2400</v>
+        <v>2340</v>
       </c>
       <c r="AB13" t="n">
         <v>720</v>
@@ -8050,25 +8354,49 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>523967.901475</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>101965.350901675</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>794492.102376675</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8077,10 +8405,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8095,13 +8423,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8113,10 +8441,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8127,20 +8455,20 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>422886.7656694</v>
+        <v>282820.9991742</v>
       </c>
       <c r="U14" t="n">
-        <v>64533.240224</v>
+        <v>43673.21884</v>
       </c>
       <c r="V14" t="n">
-        <v>57625.8419862</v>
+        <v>34176.3292533</v>
       </c>
       <c r="W14" t="n">
-        <v>4380</v>
+        <v>4140</v>
       </c>
       <c r="X14" t="n">
         <v>1440</v>
@@ -8152,7 +8480,7 @@
         <v>1440</v>
       </c>
       <c r="AA14" t="n">
-        <v>2460</v>
+        <v>2280</v>
       </c>
       <c r="AB14" t="n">
         <v>720</v>
@@ -8161,25 +8489,49 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>523967.901475</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>101965.350901675</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>38947.6</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>794309.102376675</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8188,10 +8540,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8206,13 +8558,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8224,10 +8576,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8238,20 +8590,20 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1029480.7285364</v>
+        <v>425386.7656694</v>
       </c>
       <c r="U15" t="n">
-        <v>157243.445106</v>
+        <v>65341.240224</v>
       </c>
       <c r="V15" t="n">
-        <v>161259.7937</v>
+        <v>58399.8419862</v>
       </c>
       <c r="W15" t="n">
-        <v>4700</v>
+        <v>4300</v>
       </c>
       <c r="X15" t="n">
         <v>1440</v>
@@ -8263,7 +8615,7 @@
         <v>1440</v>
       </c>
       <c r="AA15" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="AB15" t="n">
         <v>720</v>
@@ -8272,25 +8624,49 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>809144.36717</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>157651.64746565</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>111712</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1226035.41463565</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8299,10 +8675,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8317,13 +8693,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8335,10 +8711,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8349,20 +8725,20 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5371899.7778618</v>
+        <v>425386.7656694</v>
       </c>
       <c r="U16" t="n">
-        <v>811189.4530724999</v>
+        <v>65341.240224</v>
       </c>
       <c r="V16" t="n">
-        <v>820431.2729638</v>
+        <v>58399.8419862</v>
       </c>
       <c r="W16" t="n">
-        <v>5340</v>
+        <v>4380</v>
       </c>
       <c r="X16" t="n">
         <v>1440</v>
@@ -8374,7 +8750,7 @@
         <v>1440</v>
       </c>
       <c r="AA16" t="n">
-        <v>3180</v>
+        <v>2460</v>
       </c>
       <c r="AB16" t="n">
         <v>720</v>
@@ -8383,25 +8759,49 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>809144.36717</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>157651.64746565</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>111895</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1226218.41463565</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8410,10 +8810,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8428,13 +8828,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8446,10 +8846,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8460,20 +8860,20 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8785977.580996901</v>
+        <v>1066975.7285364</v>
       </c>
       <c r="U17" t="n">
-        <v>1326222.5002275</v>
+        <v>164100.445106</v>
       </c>
       <c r="V17" t="n">
-        <v>1333101.1627816</v>
+        <v>167892.7937</v>
       </c>
       <c r="W17" t="n">
-        <v>6380</v>
+        <v>4700</v>
       </c>
       <c r="X17" t="n">
         <v>1440</v>
@@ -8485,7 +8885,7 @@
         <v>1440</v>
       </c>
       <c r="AA17" t="n">
-        <v>3960</v>
+        <v>2700</v>
       </c>
       <c r="AB17" t="n">
         <v>720</v>
@@ -8494,58 +8894,82 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>1860704.45808</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>363161.1554628001</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>685692</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3179562.3635428</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8557,106 +8981,130 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>229660.7904065</v>
+        <v>5506776.7778618</v>
       </c>
       <c r="U18" t="n">
-        <v>40036.220675</v>
+        <v>834917.4530724999</v>
       </c>
       <c r="V18" t="n">
-        <v>26455.8796188</v>
+        <v>842271.2729638</v>
       </c>
       <c r="W18" t="n">
-        <v>2180</v>
+        <v>5340</v>
       </c>
       <c r="X18" t="n">
-        <v>800</v>
+        <v>1440</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>800</v>
+        <v>1440</v>
       </c>
       <c r="AA18" t="n">
-        <v>1260</v>
+        <v>3180</v>
       </c>
       <c r="AB18" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
         <v>400</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>256</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>11322788.192</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>2201419.9316039</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2007622</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>16127141.0236039</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -8668,34 +9116,34 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>311961.1761172</v>
+        <v>9095695.580996901</v>
       </c>
       <c r="U19" t="n">
-        <v>51670.896944</v>
+        <v>1380255.5002275</v>
       </c>
       <c r="V19" t="n">
-        <v>37909.0814274</v>
+        <v>1382333.1627816</v>
       </c>
       <c r="W19" t="n">
-        <v>3740</v>
+        <v>6380</v>
       </c>
       <c r="X19" t="n">
         <v>1440</v>
@@ -8707,7 +9155,7 @@
         <v>1440</v>
       </c>
       <c r="AA19" t="n">
-        <v>2280</v>
+        <v>3960</v>
       </c>
       <c r="AB19" t="n">
         <v>720</v>
@@ -8716,25 +9164,49 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>18369856.08875</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3570220.12981085</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3470670.6</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>26586627.21856085</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8743,31 +9215,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -8779,73 +9251,97 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>405968.0376758</v>
+        <v>218660.7904065</v>
       </c>
       <c r="U20" t="n">
-        <v>63979.2115365</v>
+        <v>38156.220675</v>
       </c>
       <c r="V20" t="n">
-        <v>54730.6426141</v>
+        <v>25655.8796188</v>
       </c>
       <c r="W20" t="n">
-        <v>4020</v>
+        <v>1380</v>
       </c>
       <c r="X20" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="AA20" t="n">
-        <v>2340</v>
+        <v>960</v>
       </c>
       <c r="AB20" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>550824.7193</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3391.6015721</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>32982.8</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>634578.0208721</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8854,31 +9350,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -8890,73 +9386,97 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>471130.1119163</v>
+        <v>288861.1761172</v>
       </c>
       <c r="U21" t="n">
-        <v>74853.84115200001</v>
+        <v>47722.896944</v>
       </c>
       <c r="V21" t="n">
-        <v>66094.11131589999</v>
+        <v>36229.0814274</v>
       </c>
       <c r="W21" t="n">
-        <v>4380</v>
+        <v>2060</v>
       </c>
       <c r="X21" t="n">
-        <v>1440</v>
+        <v>900</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>1440</v>
+        <v>900</v>
       </c>
       <c r="AA21" t="n">
-        <v>2460</v>
+        <v>1470</v>
       </c>
       <c r="AB21" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>655149.36527</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49023</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>44986.31796835</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>65965.60000000001</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>834152.38323835</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8965,10 +9485,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -8980,16 +9500,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9001,34 +9521,34 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>543318.04816</v>
+        <v>405968.0376758</v>
       </c>
       <c r="U22" t="n">
-        <v>90353.127647</v>
+        <v>63979.2115365</v>
       </c>
       <c r="V22" t="n">
-        <v>80648.8321171</v>
+        <v>54730.6426141</v>
       </c>
       <c r="W22" t="n">
-        <v>4700</v>
+        <v>4020</v>
       </c>
       <c r="X22" t="n">
         <v>1440</v>
@@ -9040,7 +9560,7 @@
         <v>1440</v>
       </c>
       <c r="AA22" t="n">
-        <v>2700</v>
+        <v>2340</v>
       </c>
       <c r="AB22" t="n">
         <v>720</v>
@@ -9049,25 +9569,49 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>832614.957595</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>109832.534713725</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>95470.39999999999</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1175607.792308725</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9076,10 +9620,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9094,13 +9638,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9112,10 +9656,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9126,20 +9670,20 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>690999.1468060999</v>
+        <v>471130.1119163</v>
       </c>
       <c r="U23" t="n">
-        <v>122180.1131825</v>
+        <v>74853.84115200001</v>
       </c>
       <c r="V23" t="n">
-        <v>110167.9817414</v>
+        <v>66094.11131589999</v>
       </c>
       <c r="W23" t="n">
-        <v>5340</v>
+        <v>4380</v>
       </c>
       <c r="X23" t="n">
         <v>1440</v>
@@ -9151,7 +9695,7 @@
         <v>1440</v>
       </c>
       <c r="AA23" t="n">
-        <v>3180</v>
+        <v>2460</v>
       </c>
       <c r="AB23" t="n">
         <v>720</v>
@@ -9160,25 +9704,319 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>909587.050885</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>177258.855046525</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>150324</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1381840.755931525</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>33</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>543318.04816</v>
+      </c>
+      <c r="U24" t="n">
+        <v>90353.127647</v>
+      </c>
+      <c r="V24" t="n">
+        <v>80648.8321171</v>
+      </c>
+      <c r="W24" t="n">
+        <v>4700</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2700</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>1031119.172785</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>201084.790812625</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>255711.2</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1645395.413597625</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
+        <v>95</v>
+      </c>
+      <c r="I25" t="n">
+        <v>85</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>33</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>690999.1468060999</v>
+      </c>
+      <c r="U25" t="n">
+        <v>122180.1131825</v>
+      </c>
+      <c r="V25" t="n">
+        <v>110167.9817414</v>
+      </c>
+      <c r="W25" t="n">
+        <v>5340</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>3180</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>1283810.1213</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>250518.4514784001</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>466485.6</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2183881.8227784</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/opm_hero_property/heroes/33.xlsx
+++ b/opm_hero_property/heroes/33.xlsx
@@ -997,87 +997,87 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,43315;31,8188;41,2750</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,8267</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,12283;41,0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5268;31,977;41,388</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,1166</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,1465;41,0</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>43315.54500000001</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>8188.880000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>2750.6435</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>8267.693499999999</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>12283.32</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>5268.690000000001</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>977.0600000000001</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>388.0531</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>1166.3831</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>1465.59</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1104,87 +1104,87 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,43319;31,8190;41,2751</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,8269</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,12285;41,0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5273;31,978;41,388</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,1167</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,1467;41,0</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>43319.99000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>8190.035000000001</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>2751.0972</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>8269.057199999999</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>12285.0525</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>5273.135</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>978.2150000000001</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>388.5068</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>1167.7468</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>1467.3225</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1211,87 +1211,87 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,46449;31,8969;41,3184</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,9571</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,13453;41,0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5610;31,1062;41,436</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,1311</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,1593;41,0</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>46449.715018</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>8969.210782</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>3184.31102913</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>9571.181288129999</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>13453.816173</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>5610.220861000001</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>1062.171334</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>436.38213489</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>1311.64716189</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>1593.257001</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1318,87 +1318,87 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,49992;31,9852;41,3675</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,11047</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,14778;41,0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5991;31,1157;41,490</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,1474</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,1735;41,0</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>49992.414255</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>9852.464303500001</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>3675.3677204</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>11047.1654404</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>14778.69645525</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>5991.226447500001</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>1157.1729295</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>490.5958612</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>1474.5990212</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>1735.75939425</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1425,87 +1425,87 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21,54161;31,10891;41,4265</t>
+          <t>21,54161;31,10891;41,4252</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21,54161;31,10891;41,4265</t>
+          <t>21,0;31,0;41,12783</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>21,27080;31,5445;41,2132</t>
+          <t>21,0;31,16337;41,0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21,6439;31,1268;41,555</t>
+          <t>21,6439;31,1268;41,554</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21,6439;31,1268;41,555</t>
+          <t>21,0;31,0;41,1666</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>21,3219;31,634;41,277</t>
+          <t>21,0;31,1903;41,0</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>54161</v>
+        <v>54161.539061</v>
       </c>
       <c r="O6" t="n">
-        <v>10891</v>
+        <v>10891.6583965</v>
       </c>
       <c r="P6" t="n">
-        <v>4265</v>
+        <v>4252.95827065</v>
       </c>
       <c r="Q6" t="n">
-        <v>54161</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>10891</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>4265</v>
+        <v>12783.24706565</v>
       </c>
       <c r="T6" t="n">
-        <v>27080</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>5445</v>
+        <v>16337.48759475</v>
       </c>
       <c r="V6" t="n">
-        <v>2132</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>6439</v>
+        <v>6439.3688345</v>
       </c>
       <c r="X6" t="n">
-        <v>1268</v>
+        <v>1268.9269705</v>
       </c>
       <c r="Y6" t="n">
-        <v>555</v>
+        <v>554.32299945</v>
       </c>
       <c r="Z6" t="n">
-        <v>6439</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1268</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>555</v>
+        <v>1666.14563445</v>
       </c>
       <c r="AC6" t="n">
-        <v>3219</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>634</v>
+        <v>1903.39045575</v>
       </c>
       <c r="AE6" t="n">
-        <v>277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1532,87 +1532,87 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21,60921;31,12088;41,5475</t>
+          <t>21,60921;31,12088;41,5459</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21,60921;31,12088;41,5475</t>
+          <t>21,0;31,0;41,16410</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>21,30460;31,6044;41,2737</t>
+          <t>21,0;31,18132;41,0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21,7173;31,1399;41,690</t>
+          <t>21,7173;31,1399;41,688</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21,7173;31,1399;41,690</t>
+          <t>21,0;31,0;41,2068</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21,3586;31,699;41,345</t>
+          <t>21,0;31,2098;41,0</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>60921</v>
+        <v>60921.96702900001</v>
       </c>
       <c r="O7" t="n">
-        <v>12088</v>
+        <v>12088.473061</v>
       </c>
       <c r="P7" t="n">
-        <v>5475</v>
+        <v>5459.599874850001</v>
       </c>
       <c r="Q7" t="n">
-        <v>60921</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>12088</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>5475</v>
+        <v>16410.08672985</v>
       </c>
       <c r="T7" t="n">
-        <v>30460</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>6044</v>
+        <v>18132.7095915</v>
       </c>
       <c r="V7" t="n">
-        <v>2737</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>7173</v>
+        <v>7173.174970500001</v>
       </c>
       <c r="X7" t="n">
-        <v>1399</v>
+        <v>1399.113457</v>
       </c>
       <c r="Y7" t="n">
-        <v>690</v>
+        <v>688.3485620500001</v>
       </c>
       <c r="Z7" t="n">
-        <v>7173</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1399</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>690</v>
+        <v>2068.99037705</v>
       </c>
       <c r="AC7" t="n">
-        <v>3586</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>699</v>
+        <v>2098.6701855</v>
       </c>
       <c r="AE7" t="n">
-        <v>345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1639,87 +1639,87 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21,69658;31,13439;41,7148</t>
+          <t>21,69658;31,13439;41,7128</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21,69658;31,13439;41,7148</t>
+          <t>21,0;31,0;41,21426</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>21,34829;31,6719;41,3574</t>
+          <t>21,0;31,20159;41,0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21,8117;31,1545;41,875</t>
+          <t>21,8117;31,1545;41,873</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>21,8117;31,1545;41,875</t>
+          <t>21,0;31,0;41,2624</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21,4058;31,772;41,437</t>
+          <t>21,0;31,2317;41,0</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>69658</v>
+        <v>69658.55172500001</v>
       </c>
       <c r="O8" t="n">
-        <v>13439</v>
+        <v>13439.7212215</v>
       </c>
       <c r="P8" t="n">
-        <v>7148</v>
+        <v>7128.46757348</v>
       </c>
       <c r="Q8" t="n">
-        <v>69658</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>13439</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>7148</v>
+        <v>21426.25353748</v>
       </c>
       <c r="T8" t="n">
-        <v>34829</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>6719</v>
+        <v>20159.58183225</v>
       </c>
       <c r="V8" t="n">
-        <v>3574</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>8117</v>
+        <v>8117.763762500002</v>
       </c>
       <c r="X8" t="n">
-        <v>1545</v>
+        <v>1545.2664955</v>
       </c>
       <c r="Y8" t="n">
-        <v>875</v>
+        <v>873.2732304399999</v>
       </c>
       <c r="Z8" t="n">
-        <v>8117</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1545</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>875</v>
+        <v>2624.824122439999</v>
       </c>
       <c r="AC8" t="n">
-        <v>4058</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>772</v>
+        <v>2317.89974325</v>
       </c>
       <c r="AE8" t="n">
-        <v>437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1746,87 +1746,87 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21,80898;31,14998;41,9401</t>
+          <t>21,80898;31,14998;41,9374</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21,80898;31,14998;41,9401</t>
+          <t>21,0;31,0;41,28176</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>21,40449;31,7499;41,4700</t>
+          <t>21,0;31,22497;41,0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21,9328;31,1713;41,1124</t>
+          <t>21,9328;31,1713;41,1121</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>21,9328;31,1713;41,1124</t>
+          <t>21,0;31,0;41,3371</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>21,4664;31,856;41,562</t>
+          <t>21,0;31,2569;41,0</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>80898</v>
+        <v>80898.45869700001</v>
       </c>
       <c r="O9" t="n">
-        <v>14998</v>
+        <v>14998.634861</v>
       </c>
       <c r="P9" t="n">
-        <v>9401</v>
+        <v>9374.346388129999</v>
       </c>
       <c r="Q9" t="n">
-        <v>80898</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>14998</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>9401</v>
+        <v>28176.76034713</v>
       </c>
       <c r="T9" t="n">
-        <v>40449</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>7499</v>
+        <v>22497.9522915</v>
       </c>
       <c r="V9" t="n">
-        <v>4700</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>9328</v>
+        <v>9328.5197565</v>
       </c>
       <c r="X9" t="n">
-        <v>1713</v>
+        <v>1713.020057</v>
       </c>
       <c r="Y9" t="n">
-        <v>1124</v>
+        <v>1121.58186189</v>
       </c>
       <c r="Z9" t="n">
-        <v>9328</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1713</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1124</v>
+        <v>3371.17298889</v>
       </c>
       <c r="AC9" t="n">
-        <v>4664</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>856</v>
+        <v>2569.5300855</v>
       </c>
       <c r="AE9" t="n">
-        <v>562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1853,87 +1853,87 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21,89315;31,15829;41,11277</t>
+          <t>21,89315;31,15829;41,11244</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21,89315;31,15829;41,11277</t>
+          <t>21,0;31,0;41,33799</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>21,44657;31,7914;41,5638</t>
+          <t>21,0;31,23744;41,0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>21,10235;31,1802;41,1332</t>
+          <t>21,10235;31,1802;41,1328</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21,10235;31,1802;41,1332</t>
+          <t>21,0;31,0;41,3992</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>21,5117;31,901;41,666</t>
+          <t>21,0;31,2703;41,0</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>89315</v>
+        <v>89315.659195</v>
       </c>
       <c r="O10" t="n">
-        <v>15829</v>
+        <v>15829.358475</v>
       </c>
       <c r="P10" t="n">
-        <v>11277</v>
+        <v>11244.88913579</v>
       </c>
       <c r="Q10" t="n">
-        <v>89315</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>15829</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>11277</v>
+        <v>33799.10803279</v>
       </c>
       <c r="T10" t="n">
-        <v>44657</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>7914</v>
+        <v>23744.0377125</v>
       </c>
       <c r="V10" t="n">
-        <v>5638</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>10235</v>
+        <v>10235.2710775</v>
       </c>
       <c r="X10" t="n">
-        <v>1802</v>
+        <v>1802.368575</v>
       </c>
       <c r="Y10" t="n">
-        <v>1332</v>
+        <v>1328.38844987</v>
       </c>
       <c r="Z10" t="n">
-        <v>10235</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1802</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1332</v>
+        <v>3992.77789087</v>
       </c>
       <c r="AC10" t="n">
-        <v>5117</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>901</v>
+        <v>2703.5528625</v>
       </c>
       <c r="AE10" t="n">
-        <v>666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1960,87 +1960,87 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21,99585;31,16816;41,13580</t>
+          <t>21,99585;31,16816;41,13541</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21,99585;31,16816;41,13580</t>
+          <t>21,0;31,0;41,40701</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>21,49792;31,8408;41,6790</t>
+          <t>21,0;31,25224;41,0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21,11340;31,1908;41,1586</t>
+          <t>21,11340;31,1908;41,1582</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>21,11340;31,1908;41,1586</t>
+          <t>21,0;31,0;41,4755</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21,5670;31,954;41,793</t>
+          <t>21,0;31,2862;41,0</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>99585</v>
+        <v>99585.99443800002</v>
       </c>
       <c r="O11" t="n">
-        <v>16816</v>
+        <v>16816.654736</v>
       </c>
       <c r="P11" t="n">
-        <v>13580</v>
+        <v>13541.23738837</v>
       </c>
       <c r="Q11" t="n">
-        <v>99585</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16816</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13580</v>
+        <v>40701.31237937</v>
       </c>
       <c r="T11" t="n">
-        <v>49792</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>8408</v>
+        <v>25224.982104</v>
       </c>
       <c r="V11" t="n">
-        <v>6790</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>11340</v>
+        <v>11340.118951</v>
       </c>
       <c r="X11" t="n">
-        <v>1908</v>
+        <v>1908.380432</v>
       </c>
       <c r="Y11" t="n">
-        <v>1586</v>
+        <v>1582.04104261</v>
       </c>
       <c r="Z11" t="n">
-        <v>11340</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1908</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1586</v>
+        <v>4755.18926561</v>
       </c>
       <c r="AC11" t="n">
-        <v>5670</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>954</v>
+        <v>2862.570648</v>
       </c>
       <c r="AE11" t="n">
-        <v>793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2067,87 +2067,87 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21,118507;31,18893;41,17678</t>
+          <t>21,118507;31,18893;41,17627</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21,118507;31,18893;41,17678</t>
+          <t>21,0;31,0;41,52984</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>21,59253;31,9446;41,8839</t>
+          <t>21,0;31,28340;41,0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21,13372;31,2131;41,2038</t>
+          <t>21,13372;31,2131;41,2032</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>21,13372;31,2131;41,2038</t>
+          <t>21,0;31,0;41,6110</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>21,6686;31,1065;41,1019</t>
+          <t>21,0;31,3196;41,0</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>118507</v>
+        <v>118507.873491</v>
       </c>
       <c r="O12" t="n">
-        <v>18893</v>
+        <v>18893.7458465</v>
       </c>
       <c r="P12" t="n">
-        <v>17678</v>
+        <v>17627.72541961</v>
       </c>
       <c r="Q12" t="n">
-        <v>118507</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>18893</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>17678</v>
+        <v>52984.19474260999</v>
       </c>
       <c r="T12" t="n">
-        <v>59253</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>9446</v>
+        <v>28340.61876975</v>
       </c>
       <c r="V12" t="n">
-        <v>8839</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>13372</v>
+        <v>13372.9990695</v>
       </c>
       <c r="X12" t="n">
-        <v>2131</v>
+        <v>2131.3126205</v>
       </c>
       <c r="Y12" t="n">
-        <v>2038</v>
+        <v>2032.97496633</v>
       </c>
       <c r="Z12" t="n">
-        <v>13372</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>2131</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>2038</v>
+        <v>6110.57518533</v>
       </c>
       <c r="AC12" t="n">
-        <v>6686</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>1065</v>
+        <v>3196.96893075</v>
       </c>
       <c r="AE12" t="n">
-        <v>1019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2174,87 +2174,87 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21,121438;31,19311;41,18259</t>
+          <t>21,121438;31,19311;41,18206</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21,121438;31,19311;41,18259</t>
+          <t>21,0;31,0;41,54724</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>21,60719;31,9655;41,9129</t>
+          <t>21,0;31,28967;41,0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21,13697;31,2177;41,2104</t>
+          <t>21,13697;31,2177;41,2098</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>21,13697;31,2177;41,2104</t>
+          <t>21,0;31,0;41,6306</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>21,6848;31,1088;41,1052</t>
+          <t>21,0;31,3266;41,0</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>121438</v>
+        <v>121438.729986</v>
       </c>
       <c r="O13" t="n">
-        <v>19311</v>
+        <v>19311.489729</v>
       </c>
       <c r="P13" t="n">
-        <v>18259</v>
+        <v>18206.88646986</v>
       </c>
       <c r="Q13" t="n">
-        <v>121438</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>19311</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18259</v>
+        <v>54724.99686786</v>
       </c>
       <c r="T13" t="n">
-        <v>60719</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>9655</v>
+        <v>28967.2345935</v>
       </c>
       <c r="V13" t="n">
-        <v>9129</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>13697</v>
+        <v>13697.645997</v>
       </c>
       <c r="X13" t="n">
-        <v>2177</v>
+        <v>2177.647773</v>
       </c>
       <c r="Y13" t="n">
-        <v>2104</v>
+        <v>2098.27260458</v>
       </c>
       <c r="Z13" t="n">
-        <v>13697</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>2177</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>2104</v>
+        <v>6306.84229858</v>
       </c>
       <c r="AC13" t="n">
-        <v>6848</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1088</v>
+        <v>3266.4716595</v>
       </c>
       <c r="AE13" t="n">
-        <v>1052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2281,87 +2281,87 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21,124369;31,19728;41,18839</t>
+          <t>21,124369;31,19728;41,18786</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21,124369;31,19728;41,18839</t>
+          <t>21,0;31,0;41,56465</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>21,62184;31,9864;41,9419</t>
+          <t>21,0;31,29592;41,0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21,14022;31,2223;41,2169</t>
+          <t>21,14022;31,2223;41,2163</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>21,14022;31,2223;41,2169</t>
+          <t>21,0;31,0;41,6503</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>21,7011;31,1111;41,1084</t>
+          <t>21,0;31,3335;41,0</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>124369</v>
+        <v>124369.586481</v>
       </c>
       <c r="O14" t="n">
-        <v>19728</v>
+        <v>19728.426536</v>
       </c>
       <c r="P14" t="n">
-        <v>18839</v>
+        <v>18786.04752011</v>
       </c>
       <c r="Q14" t="n">
-        <v>124369</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>19728</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>18839</v>
+        <v>56465.79899311</v>
       </c>
       <c r="T14" t="n">
-        <v>62184</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>9864</v>
+        <v>29592.639804</v>
       </c>
       <c r="V14" t="n">
-        <v>9419</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>14022</v>
+        <v>14022.2929245</v>
       </c>
       <c r="X14" t="n">
-        <v>2223</v>
+        <v>2223.897032</v>
       </c>
       <c r="Y14" t="n">
-        <v>2169</v>
+        <v>2163.57024283</v>
       </c>
       <c r="Z14" t="n">
-        <v>14022</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>2223</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>2169</v>
+        <v>6503.10941183</v>
       </c>
       <c r="AC14" t="n">
-        <v>7011</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>1111</v>
+        <v>3335.845548</v>
       </c>
       <c r="AE14" t="n">
-        <v>1084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2388,87 +2388,87 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21,127300;31,20145;41,19420</t>
+          <t>21,127300;31,20145;41,19365</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21,127300;31,20145;41,19420</t>
+          <t>21,0;31,0;41,58206</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>21,63650;31,10072;41,9710</t>
+          <t>21,0;31,30218;41,0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21,14346;31,2270;41,2235</t>
+          <t>21,14346;31,2270;41,2228</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>21,14346;31,2270;41,2235</t>
+          <t>21,0;31,0;41,6699</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>21,7173;31,1135;41,1117</t>
+          <t>21,0;31,3405;41,0</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>127300</v>
+        <v>127300.477976</v>
       </c>
       <c r="O15" t="n">
-        <v>20145</v>
+        <v>20145.363343</v>
       </c>
       <c r="P15" t="n">
-        <v>19420</v>
+        <v>19365.20857036</v>
       </c>
       <c r="Q15" t="n">
-        <v>127300</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20145</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>19420</v>
+        <v>58206.60111835999</v>
       </c>
       <c r="T15" t="n">
-        <v>63650</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>10072</v>
+        <v>30218.0450145</v>
       </c>
       <c r="V15" t="n">
-        <v>9710</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>14346</v>
+        <v>14346.974852</v>
       </c>
       <c r="X15" t="n">
-        <v>2270</v>
+        <v>2270.146291</v>
       </c>
       <c r="Y15" t="n">
-        <v>2235</v>
+        <v>2228.86788108</v>
       </c>
       <c r="Z15" t="n">
-        <v>14346</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>2270</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>2235</v>
+        <v>6699.37652508</v>
       </c>
       <c r="AC15" t="n">
-        <v>7173</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>1135</v>
+        <v>3405.2194365</v>
       </c>
       <c r="AE15" t="n">
-        <v>1117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2495,87 +2495,87 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21,130227;31,20563;41,20001</t>
+          <t>21,130227;31,20563;41,19944</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21,130227;31,20563;41,20001</t>
+          <t>21,0;31,0;41,59947</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>21,65113;31,10281;41,10000</t>
+          <t>21,0;31,30844;41,0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21,14671;31,2316;41,2300</t>
+          <t>21,14671;31,2316;41,2294</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>21,14671;31,2316;41,2300</t>
+          <t>21,0;31,0;41,6895</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>21,7335;31,1158;41,1150</t>
+          <t>21,0;31,3474;41,0</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>130227</v>
+        <v>130227.076644</v>
       </c>
       <c r="O16" t="n">
-        <v>20563</v>
+        <v>20563.1072255</v>
       </c>
       <c r="P16" t="n">
-        <v>20001</v>
+        <v>19944.36962061</v>
       </c>
       <c r="Q16" t="n">
-        <v>130227</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>20563</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>20001</v>
+        <v>59947.40324361</v>
       </c>
       <c r="T16" t="n">
-        <v>65113</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>10281</v>
+        <v>30844.66083825</v>
       </c>
       <c r="V16" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>14671</v>
+        <v>14671.168638</v>
       </c>
       <c r="X16" t="n">
-        <v>2316</v>
+        <v>2316.4814435</v>
       </c>
       <c r="Y16" t="n">
-        <v>2300</v>
+        <v>2294.16551933</v>
       </c>
       <c r="Z16" t="n">
-        <v>14671</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>2316</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>2300</v>
+        <v>6895.64363833</v>
       </c>
       <c r="AC16" t="n">
-        <v>7335</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>1158</v>
+        <v>3474.72216525</v>
       </c>
       <c r="AE16" t="n">
-        <v>1150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2602,87 +2602,87 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21,133157;31,20980;41,20582</t>
+          <t>21,133157;31,20980;41,20523</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21,133157;31,20980;41,20582</t>
+          <t>21,0;31,0;41,61688</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>21,66578;31,10490;41,10291</t>
+          <t>21,0;31,31470;41,0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>21,14995;31,2362;41,2366</t>
+          <t>21,14995;31,2362;41,2359</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>21,14995;31,2362;41,2366</t>
+          <t>21,0;31,0;41,7091</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>21,7497;31,1181;41,1183</t>
+          <t>21,0;31,3544;41,0</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>133157</v>
+        <v>133157.968139</v>
       </c>
       <c r="O17" t="n">
-        <v>20980</v>
+        <v>20980.0440325</v>
       </c>
       <c r="P17" t="n">
-        <v>20582</v>
+        <v>20523.53067086</v>
       </c>
       <c r="Q17" t="n">
-        <v>133157</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>20980</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>20582</v>
+        <v>61688.20536885999</v>
       </c>
       <c r="T17" t="n">
-        <v>66578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10490</v>
+        <v>31470.06604875</v>
       </c>
       <c r="V17" t="n">
-        <v>10291</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>14995</v>
+        <v>14995.8505655</v>
       </c>
       <c r="X17" t="n">
-        <v>2362</v>
+        <v>2362.7307025</v>
       </c>
       <c r="Y17" t="n">
-        <v>2366</v>
+        <v>2359.46315758</v>
       </c>
       <c r="Z17" t="n">
-        <v>14995</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>2362</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>2366</v>
+        <v>7091.910751580001</v>
       </c>
       <c r="AC17" t="n">
-        <v>7497</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1181</v>
+        <v>3544.09605375</v>
       </c>
       <c r="AE17" t="n">
-        <v>1183</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5107,13 +5107,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7750</v>
+        <v>7456</v>
       </c>
       <c r="C2" t="n">
-        <v>1369</v>
+        <v>1174</v>
       </c>
       <c r="D2" t="n">
-        <v>855</v>
+        <v>1152</v>
       </c>
       <c r="E2" t="n">
         <v>40</v>
@@ -5122,52 +5122,52 @@
         <v>40</v>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" t="n">
-        <v>7750</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1369</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>855</v>
+        <v>3952</v>
       </c>
       <c r="K2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="N2" t="n">
-        <v>3875</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>684</v>
+        <v>1519</v>
       </c>
       <c r="P2" t="n">
-        <v>427</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="S2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>5003</v>
+        <v>3787</v>
       </c>
       <c r="U2" t="n">
-        <v>874</v>
+        <v>664</v>
       </c>
       <c r="V2" t="n">
-        <v>727</v>
+        <v>457</v>
       </c>
       <c r="W2" t="n">
         <v>35</v>
@@ -5176,72 +5176,72 @@
         <v>35</v>
       </c>
       <c r="Y2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z2" t="n">
-        <v>5003</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>874</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>727</v>
+        <v>1567</v>
       </c>
       <c r="AC2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="AF2" t="n">
-        <v>2501</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>437</v>
+        <v>859</v>
       </c>
       <c r="AH2" t="n">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>21,7750;31,1369;41,855;22,40;32,40;42,40</t>
+          <t>21,7456;31,1174;41,1152;22,40;32,40;42,39</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>21,7750;31,1369;41,855;22,40;32,40;42,40</t>
+          <t>21,0;31,0;41,3952;22,0;32,0;42,119</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>21,3875;31,684;41,427;22,20;32,20;42,20</t>
+          <t>21,0;31,1519;41,0;22,0;32,60;42,0</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,3787;31,664;41,457;22,35;32,35;42,34</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,0;31,0;41,1567;22,0;32,0;42,104</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>21,2501;31,437;41,363;22,17;32,17;42,17</t>
+          <t>21,0;31,859;41,0;22,0;32,51;42,0</t>
         </is>
       </c>
     </row>
@@ -5250,13 +5250,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15632</v>
+        <v>14913</v>
       </c>
       <c r="C3" t="n">
-        <v>2624</v>
+        <v>2349</v>
       </c>
       <c r="D3" t="n">
-        <v>1839</v>
+        <v>2305</v>
       </c>
       <c r="E3" t="n">
         <v>80</v>
@@ -5265,52 +5265,52 @@
         <v>80</v>
       </c>
       <c r="G3" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H3" t="n">
-        <v>15632</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2624</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1839</v>
+        <v>7905</v>
       </c>
       <c r="K3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="N3" t="n">
-        <v>7816</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1312</v>
+        <v>3039</v>
       </c>
       <c r="P3" t="n">
-        <v>919</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="S3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>5241</v>
+        <v>4375</v>
       </c>
       <c r="U3" t="n">
-        <v>915</v>
+        <v>734</v>
       </c>
       <c r="V3" t="n">
-        <v>768</v>
+        <v>569</v>
       </c>
       <c r="W3" t="n">
         <v>70</v>
@@ -5319,72 +5319,72 @@
         <v>70</v>
       </c>
       <c r="Y3" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z3" t="n">
-        <v>5241</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>915</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>768</v>
+        <v>1954</v>
       </c>
       <c r="AC3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="AF3" t="n">
-        <v>2620</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>457</v>
+        <v>950</v>
       </c>
       <c r="AH3" t="n">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="AK3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>21,15632;31,2624;41,1839;22,80;32,80;42,80</t>
+          <t>21,14913;31,2349;41,2305;22,80;32,80;42,79</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>21,15632;31,2624;41,1839;22,80;32,80;42,80</t>
+          <t>21,0;31,0;41,7905;22,0;32,0;42,239</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>21,7816;31,1312;41,919;22,40;32,40;42,40</t>
+          <t>21,0;31,3039;41,0;22,0;32,120;42,0</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,4375;31,734;41,569;22,70;32,70;42,69</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,0;31,0;41,1954;22,0;32,0;42,209</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>21,2620;31,457;41,384;22,35;32,35;42,35</t>
+          <t>21,0;31,950;41,0;22,0;32,105;42,0</t>
         </is>
       </c>
     </row>
@@ -5393,13 +5393,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23435</v>
+        <v>22370</v>
       </c>
       <c r="C4" t="n">
-        <v>3735</v>
+        <v>3524</v>
       </c>
       <c r="D4" t="n">
-        <v>2996</v>
+        <v>3457</v>
       </c>
       <c r="E4" t="n">
         <v>120</v>
@@ -5408,52 +5408,52 @@
         <v>120</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H4" t="n">
-        <v>23435</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3735</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2996</v>
+        <v>11858</v>
       </c>
       <c r="K4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>359</v>
       </c>
       <c r="N4" t="n">
-        <v>11717</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1867</v>
+        <v>4559</v>
       </c>
       <c r="P4" t="n">
-        <v>1498</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="S4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>5490</v>
+        <v>5377</v>
       </c>
       <c r="U4" t="n">
-        <v>959</v>
+        <v>856</v>
       </c>
       <c r="V4" t="n">
-        <v>812</v>
+        <v>766</v>
       </c>
       <c r="W4" t="n">
         <v>105</v>
@@ -5462,72 +5462,72 @@
         <v>105</v>
       </c>
       <c r="Y4" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z4" t="n">
-        <v>5490</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>959</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>812</v>
+        <v>2628</v>
       </c>
       <c r="AC4" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>105</v>
+        <v>314</v>
       </c>
       <c r="AF4" t="n">
-        <v>2745</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>479</v>
+        <v>1108</v>
       </c>
       <c r="AH4" t="n">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="AK4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>21,23435;31,3735;41,2996;22,120;32,120;42,120</t>
+          <t>21,22370;31,3524;41,3457;22,120;32,120;42,119</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>21,23435;31,3735;41,2996;22,120;32,120;42,120</t>
+          <t>21,0;31,0;41,11858;22,0;32,0;42,359</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>21,11717;31,1867;41,1498;22,60;32,60;42,60</t>
+          <t>21,0;31,4559;41,0;22,0;32,180;42,0</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,5377;31,856;41,766;22,105;32,105;42,104</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,0;31,0;41,2628;22,0;32,0;42,314</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>21,2745;31,479;41,406;22,52;32,52;42,52</t>
+          <t>21,0;31,1108;41,0;22,0;32,156;42,0</t>
         </is>
       </c>
     </row>
@@ -5536,13 +5536,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31187</v>
+        <v>29827</v>
       </c>
       <c r="C5" t="n">
-        <v>4957</v>
+        <v>4699</v>
       </c>
       <c r="D5" t="n">
-        <v>4034</v>
+        <v>4610</v>
       </c>
       <c r="E5" t="n">
         <v>160</v>
@@ -5551,52 +5551,52 @@
         <v>160</v>
       </c>
       <c r="G5" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H5" t="n">
-        <v>31187</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>4957</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4034</v>
+        <v>15811</v>
       </c>
       <c r="K5" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>479</v>
       </c>
       <c r="N5" t="n">
-        <v>15593</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2478</v>
+        <v>6078</v>
       </c>
       <c r="P5" t="n">
-        <v>2017</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="S5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>5881</v>
+        <v>5768</v>
       </c>
       <c r="U5" t="n">
-        <v>1026</v>
+        <v>916</v>
       </c>
       <c r="V5" t="n">
-        <v>883</v>
+        <v>834</v>
       </c>
       <c r="W5" t="n">
         <v>140</v>
@@ -5605,72 +5605,72 @@
         <v>140</v>
       </c>
       <c r="Y5" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z5" t="n">
-        <v>5881</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1026</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>883</v>
+        <v>2863</v>
       </c>
       <c r="AC5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>140</v>
+        <v>419</v>
       </c>
       <c r="AF5" t="n">
-        <v>2940</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>513</v>
+        <v>1186</v>
       </c>
       <c r="AH5" t="n">
-        <v>441</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="AK5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>21,31187;31,4957;41,4034;22,160;32,160;42,160</t>
+          <t>21,29827;31,4699;41,4610;22,160;32,160;42,159</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>21,31187;31,4957;41,4034;22,160;32,160;42,160</t>
+          <t>21,0;31,0;41,15811;22,0;32,0;42,479</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>21,15593;31,2478;41,2017;22,80;32,80;42,80</t>
+          <t>21,0;31,6078;41,0;22,0;32,240;42,0</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,5768;31,916;41,834;22,140;32,140;42,139</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,0;31,0;41,2863;22,0;32,0;42,419</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>21,2940;31,513;41,441;22,70;32,70;42,70</t>
+          <t>21,0;31,1186;41,0;22,0;32,210;42,0</t>
         </is>
       </c>
     </row>
@@ -5679,13 +5679,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>38914</v>
+        <v>37284</v>
       </c>
       <c r="C6" t="n">
-        <v>6170</v>
+        <v>5874</v>
       </c>
       <c r="D6" t="n">
-        <v>5093</v>
+        <v>5763</v>
       </c>
       <c r="E6" t="n">
         <v>200</v>
@@ -5694,52 +5694,52 @@
         <v>200</v>
       </c>
       <c r="G6" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H6" t="n">
-        <v>38914</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>6170</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>5093</v>
+        <v>19764</v>
       </c>
       <c r="K6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>599</v>
       </c>
       <c r="N6" t="n">
-        <v>19457</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>3085</v>
+        <v>7598</v>
       </c>
       <c r="P6" t="n">
-        <v>2546</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>6161</v>
+        <v>6184</v>
       </c>
       <c r="U6" t="n">
-        <v>1075</v>
+        <v>980</v>
       </c>
       <c r="V6" t="n">
-        <v>932</v>
+        <v>908</v>
       </c>
       <c r="W6" t="n">
         <v>175</v>
@@ -5748,72 +5748,72 @@
         <v>175</v>
       </c>
       <c r="Y6" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Z6" t="n">
-        <v>6161</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1075</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>932</v>
+        <v>3116</v>
       </c>
       <c r="AC6" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>175</v>
+        <v>524</v>
       </c>
       <c r="AF6" t="n">
-        <v>3080</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>537</v>
+        <v>1268</v>
       </c>
       <c r="AH6" t="n">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>87</v>
+        <v>261</v>
       </c>
       <c r="AK6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>21,38914;31,6170;41,5093;22,200;32,200;42,200</t>
+          <t>21,37284;31,5874;41,5763;22,200;32,200;42,199</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>21,38914;31,6170;41,5093;22,200;32,200;42,200</t>
+          <t>21,0;31,0;41,19764;22,0;32,0;42,599</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>21,19457;31,3085;41,2546;22,100;32,100;42,100</t>
+          <t>21,0;31,7598;41,0;22,0;32,300;42,0</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,6184;31,980;41,908;22,175;32,175;42,174</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,0;31,0;41,3116;22,0;32,0;42,524</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>21,3080;31,537;41,466;22,87;32,87;42,87</t>
+          <t>21,0;31,1268;41,0;22,0;32,261;42,0</t>
         </is>
       </c>
     </row>
@@ -5822,13 +5822,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>45389</v>
+        <v>44740</v>
       </c>
       <c r="C7" t="n">
-        <v>7181</v>
+        <v>7048</v>
       </c>
       <c r="D7" t="n">
-        <v>6607</v>
+        <v>6915</v>
       </c>
       <c r="E7" t="n">
         <v>240</v>
@@ -5837,52 +5837,52 @@
         <v>240</v>
       </c>
       <c r="G7" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H7" t="n">
-        <v>45389</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>7181</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>6607</v>
+        <v>23716</v>
       </c>
       <c r="K7" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>240</v>
+        <v>719</v>
       </c>
       <c r="N7" t="n">
-        <v>22694</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>3590</v>
+        <v>9118</v>
       </c>
       <c r="P7" t="n">
-        <v>3303</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="S7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>6454</v>
+        <v>6628</v>
       </c>
       <c r="U7" t="n">
-        <v>1126</v>
+        <v>1048</v>
       </c>
       <c r="V7" t="n">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="W7" t="n">
         <v>210</v>
@@ -5891,72 +5891,72 @@
         <v>210</v>
       </c>
       <c r="Y7" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Z7" t="n">
-        <v>6454</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1126</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>984</v>
+        <v>3387</v>
       </c>
       <c r="AC7" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>210</v>
+        <v>629</v>
       </c>
       <c r="AF7" t="n">
-        <v>3227</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>563</v>
+        <v>1356</v>
       </c>
       <c r="AH7" t="n">
-        <v>492</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>105</v>
+        <v>315</v>
       </c>
       <c r="AK7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>21,45389;31,7181;41,6607;22,240;32,240;42,240</t>
+          <t>21,44740;31,7048;41,6915;22,240;32,240;42,239</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>21,45389;31,7181;41,6607;22,240;32,240;42,240</t>
+          <t>21,0;31,0;41,23716;22,0;32,0;42,719</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>21,22694;31,3590;41,3303;22,120;32,120;42,120</t>
+          <t>21,0;31,9118;41,0;22,0;32,360;42,0</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,6628;31,1048;41,987;22,210;32,210;42,209</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,0;31,0;41,3387;22,0;32,0;42,629</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>21,3227;31,563;41,492;22,105;32,105;42,105</t>
+          <t>21,0;31,1356;41,0;22,0;32,315;42,0</t>
         </is>
       </c>
     </row>
@@ -5965,13 +5965,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>51852</v>
+        <v>52197</v>
       </c>
       <c r="C8" t="n">
-        <v>8187</v>
+        <v>8223</v>
       </c>
       <c r="D8" t="n">
-        <v>8131</v>
+        <v>8068</v>
       </c>
       <c r="E8" t="n">
         <v>280</v>
@@ -5980,52 +5980,52 @@
         <v>280</v>
       </c>
       <c r="G8" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H8" t="n">
-        <v>51852</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>8187</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>8131</v>
+        <v>27669</v>
       </c>
       <c r="K8" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>280</v>
+        <v>839</v>
       </c>
       <c r="N8" t="n">
-        <v>25926</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>4093</v>
+        <v>10637</v>
       </c>
       <c r="P8" t="n">
-        <v>4065</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="S8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>6762</v>
+        <v>7100</v>
       </c>
       <c r="U8" t="n">
-        <v>1179</v>
+        <v>1121</v>
       </c>
       <c r="V8" t="n">
-        <v>1038</v>
+        <v>1072</v>
       </c>
       <c r="W8" t="n">
         <v>245</v>
@@ -6034,72 +6034,72 @@
         <v>245</v>
       </c>
       <c r="Y8" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Z8" t="n">
-        <v>6762</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1179</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>1038</v>
+        <v>3678</v>
       </c>
       <c r="AC8" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>245</v>
+        <v>734</v>
       </c>
       <c r="AF8" t="n">
-        <v>3381</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>589</v>
+        <v>1450</v>
       </c>
       <c r="AH8" t="n">
-        <v>519</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>122</v>
+        <v>366</v>
       </c>
       <c r="AK8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>21,51852;31,8187;41,8131;22,280;32,280;42,280</t>
+          <t>21,52197;31,8223;41,8068;22,280;32,280;42,279</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>21,51852;31,8187;41,8131;22,280;32,280;42,280</t>
+          <t>21,0;31,0;41,27669;22,0;32,0;42,839</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>21,25926;31,4093;41,4065;22,140;32,140;42,140</t>
+          <t>21,0;31,10637;41,0;22,0;32,420;42,0</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,7100;31,1121;41,1072;22,245;32,245;42,244</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,0;31,0;41,3678;22,0;32,0;42,734</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>21,3381;31,589;41,519;22,122;32,122;42,122</t>
+          <t>21,0;31,1450;41,0;22,0;32,366;42,0</t>
         </is>
       </c>
     </row>
@@ -6108,13 +6108,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>58814</v>
+        <v>59654</v>
       </c>
       <c r="C9" t="n">
-        <v>9266</v>
+        <v>9398</v>
       </c>
       <c r="D9" t="n">
-        <v>9482</v>
+        <v>9220</v>
       </c>
       <c r="E9" t="n">
         <v>315</v>
@@ -6123,52 +6123,52 @@
         <v>315</v>
       </c>
       <c r="G9" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H9" t="n">
-        <v>58814</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>9266</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>9482</v>
+        <v>31622</v>
       </c>
       <c r="K9" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>315</v>
+        <v>944</v>
       </c>
       <c r="N9" t="n">
-        <v>29407</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>4633</v>
+        <v>12157</v>
       </c>
       <c r="P9" t="n">
-        <v>4741</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>157</v>
+        <v>471</v>
       </c>
       <c r="S9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>7353</v>
+        <v>7891</v>
       </c>
       <c r="U9" t="n">
-        <v>1283</v>
+        <v>1243</v>
       </c>
       <c r="V9" t="n">
-        <v>1144</v>
+        <v>1215</v>
       </c>
       <c r="W9" t="n">
         <v>280</v>
@@ -6177,72 +6177,72 @@
         <v>280</v>
       </c>
       <c r="Y9" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Z9" t="n">
-        <v>7353</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1283</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1144</v>
+        <v>4169</v>
       </c>
       <c r="AC9" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>280</v>
+        <v>839</v>
       </c>
       <c r="AF9" t="n">
-        <v>3676</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>641</v>
+        <v>1608</v>
       </c>
       <c r="AH9" t="n">
-        <v>572</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="AK9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>21,58814;31,9266;41,9482;22,315;32,315;42,315</t>
+          <t>21,59654;31,9398;41,9220;22,315;32,315;42,314</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>21,58814;31,9266;41,9482;22,315;32,315;42,315</t>
+          <t>21,0;31,0;41,31622;22,0;32,0;42,944</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>21,29407;31,4633;41,4741;22,157;32,157;42,157</t>
+          <t>21,0;31,12157;41,0;22,0;32,471;42,0</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,7891;31,1243;41,1215;22,280;32,280;42,279</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,0;31,0;41,4169;22,0;32,0;42,839</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>21,3676;31,641;41,572;22,140;32,140;42,140</t>
+          <t>21,0;31,1608;41,0;22,0;32,420;42,0</t>
         </is>
       </c>
     </row>
@@ -6251,13 +6251,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>66755</v>
+        <v>67111</v>
       </c>
       <c r="C10" t="n">
-        <v>10517</v>
+        <v>10573</v>
       </c>
       <c r="D10" t="n">
-        <v>10444</v>
+        <v>10373</v>
       </c>
       <c r="E10" t="n">
         <v>335</v>
@@ -6266,52 +6266,52 @@
         <v>335</v>
       </c>
       <c r="G10" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H10" t="n">
-        <v>66755</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>10517</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>10444</v>
+        <v>35575</v>
       </c>
       <c r="K10" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>335</v>
+        <v>1004</v>
       </c>
       <c r="N10" t="n">
-        <v>33377</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5258</v>
+        <v>13677</v>
       </c>
       <c r="P10" t="n">
-        <v>5222</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>167</v>
+        <v>501</v>
       </c>
       <c r="S10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>7961</v>
+        <v>8544</v>
       </c>
       <c r="U10" t="n">
-        <v>1389</v>
+        <v>1346</v>
       </c>
       <c r="V10" t="n">
-        <v>1254</v>
+        <v>1332</v>
       </c>
       <c r="W10" t="n">
         <v>315</v>
@@ -6320,72 +6320,72 @@
         <v>315</v>
       </c>
       <c r="Y10" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Z10" t="n">
-        <v>7961</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1389</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1254</v>
+        <v>4571</v>
       </c>
       <c r="AC10" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>315</v>
+        <v>944</v>
       </c>
       <c r="AF10" t="n">
-        <v>3980</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>694</v>
+        <v>1741</v>
       </c>
       <c r="AH10" t="n">
-        <v>627</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>157</v>
+        <v>471</v>
       </c>
       <c r="AK10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>21,66755;31,10517;41,10444;22,335;32,335;42,335</t>
+          <t>21,67111;31,10573;41,10373;22,335;32,335;42,334</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>21,66755;31,10517;41,10444;22,335;32,335;42,335</t>
+          <t>21,0;31,0;41,35575;22,0;32,0;42,1004</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>21,33377;31,5258;41,5222;22,167;32,167;42,167</t>
+          <t>21,0;31,13677;41,0;22,0;32,501;42,0</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,8544;31,1346;41,1332;22,315;32,315;42,314</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,0;31,0;41,4571;22,0;32,0;42,944</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>21,3980;31,694;41,627;22,157;32,157;42,157</t>
+          <t>21,0;31,1741;41,0;22,0;32,471;42,0</t>
         </is>
       </c>
     </row>
@@ -6409,52 +6409,52 @@
         <v>350</v>
       </c>
       <c r="G11" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H11" t="n">
-        <v>74568</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>11748</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11526</v>
+        <v>39528</v>
       </c>
       <c r="K11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>350</v>
+        <v>1049</v>
       </c>
       <c r="N11" t="n">
-        <v>37284</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>5874</v>
+        <v>15197</v>
       </c>
       <c r="P11" t="n">
-        <v>5763</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>175</v>
+        <v>525</v>
       </c>
       <c r="S11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8582</v>
+        <v>9211</v>
       </c>
       <c r="U11" t="n">
-        <v>1497</v>
+        <v>1451</v>
       </c>
       <c r="V11" t="n">
-        <v>1368</v>
+        <v>1453</v>
       </c>
       <c r="W11" t="n">
         <v>350</v>
@@ -6463,72 +6463,72 @@
         <v>350</v>
       </c>
       <c r="Y11" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Z11" t="n">
-        <v>8582</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1497</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1368</v>
+        <v>4984</v>
       </c>
       <c r="AC11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>350</v>
+        <v>1049</v>
       </c>
       <c r="AF11" t="n">
-        <v>4291</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>748</v>
+        <v>1877</v>
       </c>
       <c r="AH11" t="n">
-        <v>684</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>175</v>
+        <v>525</v>
       </c>
       <c r="AK11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>21,74568;31,11748;41,11526;22,350;32,350;42,350</t>
+          <t>21,74568;31,11748;41,11526;22,350;32,350;42,349</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>21,74568;31,11748;41,11526;22,350;32,350;42,350</t>
+          <t>21,0;31,0;41,39528;22,0;32,0;42,1049</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>21,37284;31,5874;41,5763;22,175;32,175;42,175</t>
+          <t>21,0;31,15197;41,0;22,0;32,525;42,0</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,9211;31,1451;41,1453;22,350;32,350;42,349</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,0;31,0;41,4984;22,0;32,0;42,1049</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>21,4291;31,748;41,684;22,175;32,175;42,175</t>
+          <t>21,0;31,1877;41,0;22,0;32,525;42,0</t>
         </is>
       </c>
     </row>
@@ -6839,13 +6839,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5506776.7778618</v>
+        <v>5714502.7460008</v>
       </c>
       <c r="U2" t="n">
-        <v>834917.4530724999</v>
+        <v>867645.497105</v>
       </c>
       <c r="V2" t="n">
-        <v>842271.2729638</v>
+        <v>874320.80363466</v>
       </c>
       <c r="W2" t="n">
         <v>5340</v>
@@ -6886,8 +6886,16 @@
       <c r="AI2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,101216</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>21,0;31,46667;41,0</t>
+        </is>
+      </c>
       <c r="AL2" t="n">
         <v>11322788.192</v>
       </c>
@@ -6907,10 +6915,10 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>617834.2733206949</v>
       </c>
       <c r="AS2" t="n">
-        <v>16127141.0236039</v>
+        <v>16744975.29692459</v>
       </c>
     </row>
     <row r="3">
@@ -6974,13 +6982,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>690999.1468060999</v>
+        <v>715205.9973715999</v>
       </c>
       <c r="U3" t="n">
-        <v>122180.1131825</v>
+        <v>125993.843885</v>
       </c>
       <c r="V3" t="n">
-        <v>110167.9817414</v>
+        <v>113980.44489898</v>
       </c>
       <c r="W3" t="n">
         <v>5340</v>
@@ -7021,8 +7029,16 @@
       <c r="AI3" t="n">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,12075</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>21,0;31,5421;41,0</t>
+        </is>
+      </c>
       <c r="AL3" t="n">
         <v>1283810.1213</v>
       </c>
@@ -7042,10 +7058,10 @@
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>72443.25556883501</v>
       </c>
       <c r="AS3" t="n">
-        <v>2183881.8227784</v>
+        <v>2256325.078347235</v>
       </c>
     </row>
     <row r="4">
@@ -7514,13 +7530,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>56982.878</v>
+        <v>64599.705512</v>
       </c>
       <c r="U7" t="n">
-        <v>9783.75</v>
+        <v>10985.829</v>
       </c>
       <c r="V7" t="n">
-        <v>5894.894</v>
+        <v>7064.2602866</v>
       </c>
       <c r="W7" t="n">
         <v>1380</v>
@@ -7561,8 +7577,16 @@
       <c r="AI7" t="n">
         <v>0</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,4004</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>21,0;31,1561;41,0</t>
+        </is>
+      </c>
       <c r="AL7" t="n">
         <v>115072.2935</v>
       </c>
@@ -7582,10 +7606,10 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>22635.02875995</v>
       </c>
       <c r="AS7" t="n">
-        <v>163504.3935</v>
+        <v>186139.42225995</v>
       </c>
     </row>
     <row r="8">
@@ -7649,13 +7673,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>57264.326146</v>
+        <v>72498.98117</v>
       </c>
       <c r="U8" t="n">
-        <v>9818.848749999999</v>
+        <v>12224.00675</v>
       </c>
       <c r="V8" t="n">
-        <v>5926.064258</v>
+        <v>8266.2421206</v>
       </c>
       <c r="W8" t="n">
         <v>1380</v>
@@ -7696,8 +7720,16 @@
       <c r="AI8" t="n">
         <v>0</v>
       </c>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,8011</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>21,0;31,3123;41,0</t>
+        </is>
+      </c>
       <c r="AL8" t="n">
         <v>115072.2935</v>
       </c>
@@ -7717,10 +7749,10 @@
         <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>45286.26793395</v>
       </c>
       <c r="AS8" t="n">
-        <v>164207.2520045</v>
+        <v>209493.51993845</v>
       </c>
     </row>
     <row r="9">
@@ -7919,13 +7951,13 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>244159.2573282</v>
+        <v>252351.6714586</v>
       </c>
       <c r="U10" t="n">
-        <v>39273.96964</v>
+        <v>40565.282952</v>
       </c>
       <c r="V10" t="n">
-        <v>29184.7605243</v>
+        <v>30429.46108641</v>
       </c>
       <c r="W10" t="n">
         <v>3620</v>
@@ -7966,8 +7998,16 @@
       <c r="AI10" t="n">
         <v>0</v>
       </c>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,4234</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>21,0;31,1694;41,0</t>
+        </is>
+      </c>
       <c r="AL10" t="n">
         <v>523967.901475</v>
       </c>
@@ -7987,10 +8027,10 @@
         <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>24259.5042153325</v>
       </c>
       <c r="AS10" t="n">
-        <v>695784.0208589251</v>
+        <v>720043.5250742575</v>
       </c>
     </row>
     <row r="11">
@@ -8054,13 +8094,13 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>257046.5046102</v>
+        <v>298012.5752622</v>
       </c>
       <c r="U11" t="n">
-        <v>40740.38604</v>
+        <v>47200.9526</v>
       </c>
       <c r="V11" t="n">
-        <v>30848.6167673</v>
+        <v>37084.62732781</v>
       </c>
       <c r="W11" t="n">
         <v>3820</v>
@@ -8101,8 +8141,16 @@
       <c r="AI11" t="n">
         <v>0</v>
       </c>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,21187</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>21,0;31,8477;41,0</t>
+        </is>
+      </c>
       <c r="AL11" t="n">
         <v>523967.901475</v>
       </c>
@@ -8122,10 +8170,10 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>121401.0406389325</v>
       </c>
       <c r="AS11" t="n">
-        <v>728686.714698175</v>
+        <v>850087.7553371076</v>
       </c>
     </row>
     <row r="12">
@@ -8189,13 +8237,13 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>269933.7518922</v>
+        <v>310899.8225442</v>
       </c>
       <c r="U12" t="n">
-        <v>42206.80244</v>
+        <v>48667.369</v>
       </c>
       <c r="V12" t="n">
-        <v>32512.4730103</v>
+        <v>38748.48357081</v>
       </c>
       <c r="W12" t="n">
         <v>4020</v>
@@ -8236,8 +8284,16 @@
       <c r="AI12" t="n">
         <v>0</v>
       </c>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,21187</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>21,0;31,8477;41,0</t>
+        </is>
+      </c>
       <c r="AL12" t="n">
         <v>523967.901475</v>
       </c>
@@ -8257,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>121401.0406389325</v>
       </c>
       <c r="AS12" t="n">
-        <v>761589.4085374251</v>
+        <v>882990.4491763576</v>
       </c>
     </row>
     <row r="13">
@@ -8324,13 +8380,13 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>282820.9991742</v>
+        <v>363832.6228152</v>
       </c>
       <c r="U13" t="n">
-        <v>43673.21884</v>
+        <v>56447.71032</v>
       </c>
       <c r="V13" t="n">
-        <v>34176.3292533</v>
+        <v>46531.88043731</v>
       </c>
       <c r="W13" t="n">
         <v>4220</v>
@@ -8371,8 +8427,16 @@
       <c r="AI13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,42021</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>21,0;31,16736;41,0</t>
+        </is>
+      </c>
       <c r="AL13" t="n">
         <v>523967.901475</v>
       </c>
@@ -8392,10 +8456,10 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>240200.0341610575</v>
       </c>
       <c r="AS13" t="n">
-        <v>794492.102376675</v>
+        <v>1034692.136537732</v>
       </c>
     </row>
     <row r="14">
@@ -8459,13 +8523,13 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>282820.9991742</v>
+        <v>323787.0698262</v>
       </c>
       <c r="U14" t="n">
-        <v>43673.21884</v>
+        <v>50133.7854</v>
       </c>
       <c r="V14" t="n">
-        <v>34176.3292533</v>
+        <v>40412.33981381</v>
       </c>
       <c r="W14" t="n">
         <v>4140</v>
@@ -8506,8 +8570,16 @@
       <c r="AI14" t="n">
         <v>0</v>
       </c>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,21187</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>21,0;31,8477;41,0</t>
+        </is>
+      </c>
       <c r="AL14" t="n">
         <v>523967.901475</v>
       </c>
@@ -8527,10 +8599,10 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>121401.0406389325</v>
       </c>
       <c r="AS14" t="n">
-        <v>794309.102376675</v>
+        <v>915710.1430156075</v>
       </c>
     </row>
     <row r="15">
@@ -8594,13 +8666,13 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>425386.7656694</v>
+        <v>476757.6435462</v>
       </c>
       <c r="U15" t="n">
-        <v>65341.240224</v>
+        <v>73440.77768319999</v>
       </c>
       <c r="V15" t="n">
-        <v>58399.8419862</v>
+        <v>66269.66057574</v>
       </c>
       <c r="W15" t="n">
         <v>4300</v>
@@ -8641,8 +8713,16 @@
       <c r="AI15" t="n">
         <v>0</v>
       </c>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,26588</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>21,0;31,10695;41,0</t>
+        </is>
+      </c>
       <c r="AL15" t="n">
         <v>809144.36717</v>
       </c>
@@ -8662,10 +8742,10 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>152509.143235135</v>
       </c>
       <c r="AS15" t="n">
-        <v>1226035.41463565</v>
+        <v>1378544.557870785</v>
       </c>
     </row>
     <row r="16">
@@ -8729,13 +8809,13 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>425386.7656694</v>
+        <v>485319.789859</v>
       </c>
       <c r="U16" t="n">
-        <v>65341.240224</v>
+        <v>74791.03392640001</v>
       </c>
       <c r="V16" t="n">
-        <v>58399.8419862</v>
+        <v>67582.46285014</v>
       </c>
       <c r="W16" t="n">
         <v>4380</v>
@@ -8776,8 +8856,16 @@
       <c r="AI16" t="n">
         <v>0</v>
       </c>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,31020</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21,0;31,12477;41,0</t>
+        </is>
+      </c>
       <c r="AL16" t="n">
         <v>809144.36717</v>
       </c>
@@ -8797,10 +8885,10 @@
         <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>177936.670703815</v>
       </c>
       <c r="AS16" t="n">
-        <v>1226218.41463565</v>
+        <v>1404155.085339465</v>
       </c>
     </row>
     <row r="17">
@@ -8864,13 +8952,13 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1066975.7285364</v>
+        <v>1145946.4429562</v>
       </c>
       <c r="U17" t="n">
-        <v>164100.445106</v>
+        <v>176548.5026998</v>
       </c>
       <c r="V17" t="n">
-        <v>167892.7937</v>
+        <v>180272.13924</v>
       </c>
       <c r="W17" t="n">
         <v>4700</v>
@@ -8911,8 +8999,16 @@
       <c r="AI17" t="n">
         <v>0</v>
       </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,41120</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>21,0;31,16717;41,0</t>
+        </is>
+      </c>
       <c r="AL17" t="n">
         <v>1860704.45808</v>
       </c>
@@ -8932,10 +9028,10 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>236043.54867202</v>
       </c>
       <c r="AS17" t="n">
-        <v>3179562.3635428</v>
+        <v>3415605.91221482</v>
       </c>
     </row>
     <row r="18">
@@ -8999,13 +9095,13 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5506776.7778618</v>
+        <v>5714502.7460008</v>
       </c>
       <c r="U18" t="n">
-        <v>834917.4530724999</v>
+        <v>867645.497105</v>
       </c>
       <c r="V18" t="n">
-        <v>842271.2729638</v>
+        <v>874320.80363466</v>
       </c>
       <c r="W18" t="n">
         <v>5340</v>
@@ -9046,8 +9142,16 @@
       <c r="AI18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,101216</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>21,0;31,46667;41,0</t>
+        </is>
+      </c>
       <c r="AL18" t="n">
         <v>11322788.192</v>
       </c>
@@ -9067,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>617834.2733206949</v>
       </c>
       <c r="AS18" t="n">
-        <v>16127141.0236039</v>
+        <v>16744975.29692459</v>
       </c>
     </row>
     <row r="19">
@@ -9134,13 +9238,13 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9095695.580996901</v>
+        <v>9303421.549135901</v>
       </c>
       <c r="U19" t="n">
-        <v>1380255.5002275</v>
+        <v>1412983.54426</v>
       </c>
       <c r="V19" t="n">
-        <v>1382333.1627816</v>
+        <v>1414382.69345246</v>
       </c>
       <c r="W19" t="n">
         <v>6380</v>
@@ -9181,8 +9285,16 @@
       <c r="AI19" t="n">
         <v>0</v>
       </c>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,101216</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>21,0;31,46667;41,0</t>
+        </is>
+      </c>
       <c r="AL19" t="n">
         <v>18369856.08875</v>
       </c>
@@ -9202,10 +9314,10 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>617834.273320695</v>
       </c>
       <c r="AS19" t="n">
-        <v>26586627.21856085</v>
+        <v>27204461.49188155</v>
       </c>
     </row>
     <row r="20">
@@ -9269,13 +9381,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>218660.7904065</v>
+        <v>223110.62085975</v>
       </c>
       <c r="U20" t="n">
-        <v>38156.220675</v>
+        <v>38936.48064749999</v>
       </c>
       <c r="V20" t="n">
-        <v>25655.8796188</v>
+        <v>26190.58963936</v>
       </c>
       <c r="W20" t="n">
         <v>1380</v>
@@ -9316,8 +9428,16 @@
       <c r="AI20" t="n">
         <v>0</v>
       </c>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,1804</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>21,0;31,1028;41,0</t>
+        </is>
+      </c>
       <c r="AL20" t="n">
         <v>550824.7193</v>
       </c>
@@ -9337,10 +9457,10 @@
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>12908.20688172</v>
       </c>
       <c r="AS20" t="n">
-        <v>634578.0208721</v>
+        <v>647486.22775382</v>
       </c>
     </row>
     <row r="21">
@@ -9404,13 +9524,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>288861.1761172</v>
+        <v>294808.0899824</v>
       </c>
       <c r="U21" t="n">
-        <v>47722.896944</v>
+        <v>48720.9720896</v>
       </c>
       <c r="V21" t="n">
-        <v>36229.0814274</v>
+        <v>37001.43654518</v>
       </c>
       <c r="W21" t="n">
         <v>2060</v>
@@ -9451,8 +9571,16 @@
       <c r="AI21" t="n">
         <v>0</v>
       </c>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,2569</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>21,0;31,1346;41,0</t>
+        </is>
+      </c>
       <c r="AL21" t="n">
         <v>655149.36527</v>
       </c>
@@ -9472,10 +9600,10 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>17274.674297075</v>
       </c>
       <c r="AS21" t="n">
-        <v>834152.38323835</v>
+        <v>851427.0575354251</v>
       </c>
     </row>
     <row r="22">
@@ -9539,13 +9667,13 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>405968.0376758</v>
+        <v>417116.4693753</v>
       </c>
       <c r="U22" t="n">
-        <v>63979.2115365</v>
+        <v>65750.30990925001</v>
       </c>
       <c r="V22" t="n">
-        <v>54730.6426141</v>
+        <v>56353.37215332001</v>
       </c>
       <c r="W22" t="n">
         <v>4020</v>
@@ -9586,8 +9714,16 @@
       <c r="AI22" t="n">
         <v>0</v>
       </c>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,5268</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21,0;31,2447;41,0</t>
+        </is>
+      </c>
       <c r="AL22" t="n">
         <v>832614.957595</v>
       </c>
@@ -9607,10 +9743,10 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>0</v>
+        <v>32699.70532199</v>
       </c>
       <c r="AS22" t="n">
-        <v>1175607.792308725</v>
+        <v>1208307.497630715</v>
       </c>
     </row>
     <row r="23">
@@ -9674,13 +9810,13 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>471130.1119163</v>
+        <v>485789.21975685</v>
       </c>
       <c r="U23" t="n">
-        <v>74853.84115200001</v>
+        <v>77173.6408128</v>
       </c>
       <c r="V23" t="n">
-        <v>66094.11131589999</v>
+        <v>68280.47377777999</v>
       </c>
       <c r="W23" t="n">
         <v>4380</v>
@@ -9721,8 +9857,16 @@
       <c r="AI23" t="n">
         <v>0</v>
       </c>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,7030</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,0;31,3240;41,0</t>
+        </is>
+      </c>
       <c r="AL23" t="n">
         <v>909587.050885</v>
       </c>
@@ -9742,10 +9886,10 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>43237.30965588</v>
       </c>
       <c r="AS23" t="n">
-        <v>1381840.755931525</v>
+        <v>1425078.065587405</v>
       </c>
     </row>
     <row r="24">
@@ -9809,13 +9953,13 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>543318.04816</v>
+        <v>560941.6376</v>
       </c>
       <c r="U24" t="n">
-        <v>90353.127647</v>
+        <v>93132.8580142</v>
       </c>
       <c r="V24" t="n">
-        <v>80648.8321171</v>
+        <v>83338.92900787</v>
       </c>
       <c r="W24" t="n">
         <v>4700</v>
@@ -9856,8 +10000,16 @@
       <c r="AI24" t="n">
         <v>0</v>
       </c>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,8604</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>21,0;31,3913;41,0</t>
+        </is>
+      </c>
       <c r="AL24" t="n">
         <v>1031119.172785</v>
       </c>
@@ -9877,10 +10029,10 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>52271.7860956075</v>
       </c>
       <c r="AS24" t="n">
-        <v>1645395.413597625</v>
+        <v>1697667.199693233</v>
       </c>
     </row>
     <row r="25">
@@ -9944,13 +10096,13 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>690999.1468060999</v>
+        <v>715205.9973715999</v>
       </c>
       <c r="U25" t="n">
-        <v>122180.1131825</v>
+        <v>125993.843885</v>
       </c>
       <c r="V25" t="n">
-        <v>110167.9817414</v>
+        <v>113980.44489898</v>
       </c>
       <c r="W25" t="n">
         <v>5340</v>
@@ -9991,8 +10143,16 @@
       <c r="AI25" t="n">
         <v>0</v>
       </c>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,12075</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>21,0;31,5421;41,0</t>
+        </is>
+      </c>
       <c r="AL25" t="n">
         <v>1283810.1213</v>
       </c>
@@ -10012,10 +10172,10 @@
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>0</v>
+        <v>72443.25556883501</v>
       </c>
       <c r="AS25" t="n">
-        <v>2183881.8227784</v>
+        <v>2256325.078347235</v>
       </c>
     </row>
   </sheetData>

--- a/opm_hero_property/heroes/33.xlsx
+++ b/opm_hero_property/heroes/33.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6739,40 +6739,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -6812,7 +6832,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>33</v>
@@ -6839,13 +6859,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5714502.7460008</v>
+        <v>6627585.816032801</v>
       </c>
       <c r="U2" t="n">
-        <v>867645.497105</v>
+        <v>1011507.883465</v>
       </c>
       <c r="V2" t="n">
-        <v>874320.80363466</v>
+        <v>1015456.14614666</v>
       </c>
       <c r="W2" t="n">
         <v>5340</v>
@@ -6884,7 +6904,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -6897,28 +6917,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11322788.192</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>2201419.9316039</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2007622</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2913379.05536</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1811504.7</v>
+      </c>
+      <c r="AU2" t="n">
         <v>617834.2733206949</v>
       </c>
-      <c r="AS2" t="n">
-        <v>16744975.29692459</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>19462237.0522846</v>
       </c>
     </row>
     <row r="3">
@@ -6955,7 +6983,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>33</v>
@@ -6982,13 +7010,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>715205.9973715999</v>
+        <v>818034.2272355999</v>
       </c>
       <c r="U3" t="n">
-        <v>125993.843885</v>
+        <v>142195.371205</v>
       </c>
       <c r="V3" t="n">
-        <v>113980.44489898</v>
+        <v>130205.95643498</v>
       </c>
       <c r="W3" t="n">
         <v>5340</v>
@@ -7027,7 +7055,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -7040,28 +7068,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1283810.1213</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>250518.4514784001</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>466485.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>569124.409704</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>205276.65</v>
+      </c>
+      <c r="AU3" t="n">
         <v>72443.25556883501</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2256325.078347235</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2564240.538051235</v>
       </c>
     </row>
     <row r="4">
@@ -7098,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>33</v>
@@ -7125,13 +7161,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7518.9172</v>
+        <v>7999.9172</v>
       </c>
       <c r="U4" t="n">
-        <v>1529.2167</v>
+        <v>1604.2167</v>
       </c>
       <c r="V4" t="n">
-        <v>597.0454999999999</v>
+        <v>671.0454999999999</v>
       </c>
       <c r="W4" t="n">
         <v>600</v>
@@ -7170,25 +7206,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>18780.674055</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4456.85</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7196,7 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23237.524055</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1424</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>24661.524055</v>
       </c>
     </row>
     <row r="5">
@@ -7233,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>33</v>
@@ -7260,13 +7304,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>20132.7225</v>
+        <v>34267.7225</v>
       </c>
       <c r="U5" t="n">
-        <v>3801.9858</v>
+        <v>6028.9858</v>
       </c>
       <c r="V5" t="n">
-        <v>1837.612</v>
+        <v>4021.612</v>
       </c>
       <c r="W5" t="n">
         <v>777</v>
@@ -7305,25 +7349,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>47873.94352</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11828.8</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7331,7 +7371,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>59702.74352</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>42059.3</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>101762.04352</v>
       </c>
     </row>
     <row r="6">
@@ -7368,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>33</v>
@@ -7395,13 +7447,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>56982.878</v>
+        <v>117580.878</v>
       </c>
       <c r="U6" t="n">
-        <v>9783.75</v>
+        <v>19330.75</v>
       </c>
       <c r="V6" t="n">
-        <v>5894.894</v>
+        <v>15260.894</v>
       </c>
       <c r="W6" t="n">
         <v>1300</v>
@@ -7440,33 +7492,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>115072.2935</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32682</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9406.6</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>163321.3935</v>
+      <c r="AT6" t="n">
+        <v>180326.8</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>343648.1935000001</v>
       </c>
     </row>
     <row r="7">
@@ -7503,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>33</v>
@@ -7530,13 +7590,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>64599.705512</v>
+        <v>125197.705512</v>
       </c>
       <c r="U7" t="n">
-        <v>10985.829</v>
+        <v>20532.829</v>
       </c>
       <c r="V7" t="n">
-        <v>7064.2602866</v>
+        <v>16430.2602866</v>
       </c>
       <c r="W7" t="n">
         <v>1380</v>
@@ -7575,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -7588,28 +7648,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>115072.2935</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32682</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9589.6</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>180326.8</v>
+      </c>
+      <c r="AU7" t="n">
         <v>22635.02875995</v>
       </c>
-      <c r="AS7" t="n">
-        <v>186139.42225995</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>366466.2222599501</v>
       </c>
     </row>
     <row r="8">
@@ -7646,7 +7714,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>33</v>
@@ -7673,13 +7741,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>72498.98117</v>
+        <v>133096.98117</v>
       </c>
       <c r="U8" t="n">
-        <v>12224.00675</v>
+        <v>21771.00675</v>
       </c>
       <c r="V8" t="n">
-        <v>8266.2421206</v>
+        <v>17632.2421206</v>
       </c>
       <c r="W8" t="n">
         <v>1380</v>
@@ -7718,7 +7786,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -7731,28 +7799,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>115072.2935</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32682</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>702.8585045000001</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9589.6</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>180326.8</v>
+      </c>
+      <c r="AU8" t="n">
         <v>45286.26793395</v>
       </c>
-      <c r="AS8" t="n">
-        <v>209493.51993845</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>389820.31993845</v>
       </c>
     </row>
     <row r="9">
@@ -7789,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>33</v>
@@ -7816,31 +7892,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>242870.5326</v>
+        <v>423492.567926</v>
       </c>
       <c r="U9" t="n">
-        <v>39127.328</v>
+        <v>66735.61128000001</v>
       </c>
       <c r="V9" t="n">
-        <v>29018.3749</v>
+        <v>55259.068649</v>
       </c>
       <c r="W9" t="n">
-        <v>3620</v>
+        <v>3630</v>
       </c>
       <c r="X9" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="AA9" t="n">
-        <v>2340</v>
+        <v>2350</v>
       </c>
       <c r="AB9" t="n">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7861,33 +7937,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>523967.901475</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>692526.7514750001</v>
+        <v>44362.02901475001</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>422544.15</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000005</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1214649.93048975</v>
       </c>
     </row>
     <row r="10">
@@ -7924,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>33</v>
@@ -7951,31 +8035,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>252351.6714586</v>
+        <v>490364.1935067228</v>
       </c>
       <c r="U10" t="n">
-        <v>40565.282952</v>
+        <v>77349.38261635201</v>
       </c>
       <c r="V10" t="n">
-        <v>30429.46108641</v>
+        <v>63187.41762244738</v>
       </c>
       <c r="W10" t="n">
-        <v>3620</v>
+        <v>3630</v>
       </c>
       <c r="X10" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="AA10" t="n">
-        <v>2340</v>
+        <v>2350</v>
       </c>
       <c r="AB10" t="n">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -7996,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8009,28 +8093,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>523967.901475</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>3257.269383925</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>44362.02901475001</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>422544.15</v>
+      </c>
+      <c r="AU10" t="n">
         <v>24259.5042153325</v>
       </c>
-      <c r="AS10" t="n">
-        <v>720043.5250742575</v>
+      <c r="AV10" t="n">
+        <v>252525.4807996166</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1400344.584888624</v>
       </c>
     </row>
     <row r="11">
@@ -8067,7 +8163,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>33</v>
@@ -8094,31 +8190,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>298012.5752622</v>
+        <v>601021.7135787876</v>
       </c>
       <c r="U11" t="n">
-        <v>47200.9526</v>
+        <v>92934.62437168001</v>
       </c>
       <c r="V11" t="n">
-        <v>37084.62732781</v>
+        <v>77088.37685619258</v>
       </c>
       <c r="W11" t="n">
-        <v>3820</v>
+        <v>3830</v>
       </c>
       <c r="X11" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="AA11" t="n">
-        <v>2340</v>
+        <v>2350</v>
       </c>
       <c r="AB11" t="n">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8139,7 +8235,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -8152,28 +8248,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>523967.901475</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>36159.963223175</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>44362.02901475001</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>422544.15</v>
+      </c>
+      <c r="AU11" t="n">
         <v>121401.0406389325</v>
       </c>
-      <c r="AS11" t="n">
-        <v>850087.7553371076</v>
+      <c r="AV11" t="n">
+        <v>420937.4543146295</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1698800.788666487</v>
       </c>
     </row>
     <row r="12">
@@ -8210,7 +8318,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>33</v>
@@ -8237,31 +8345,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>310899.8225442</v>
+        <v>696585.2728854741</v>
       </c>
       <c r="U12" t="n">
-        <v>48667.369</v>
+        <v>103868.01697788</v>
       </c>
       <c r="V12" t="n">
-        <v>38748.48357081</v>
+        <v>89759.10676724202</v>
       </c>
       <c r="W12" t="n">
-        <v>4020</v>
+        <v>4040</v>
       </c>
       <c r="X12" t="n">
-        <v>1440</v>
+        <v>1460</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>1440</v>
+        <v>1460</v>
       </c>
       <c r="AA12" t="n">
-        <v>2340</v>
+        <v>2360</v>
       </c>
       <c r="AB12" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8282,7 +8390,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -8295,28 +8403,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>523967.901475</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>69062.657062425</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>44362.02901475001</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>422544.15</v>
+      </c>
+      <c r="AU12" t="n">
         <v>121401.0406389325</v>
       </c>
-      <c r="AS12" t="n">
-        <v>882990.4491763576</v>
+      <c r="AV12" t="n">
+        <v>632345.4257533802</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1943111.453944488</v>
       </c>
     </row>
     <row r="13">
@@ -8353,7 +8473,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>33</v>
@@ -8380,31 +8500,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>363832.6228152</v>
+        <v>846701.6779621651</v>
       </c>
       <c r="U13" t="n">
-        <v>56447.71032</v>
+        <v>124660.0094656</v>
       </c>
       <c r="V13" t="n">
-        <v>46531.88043731</v>
+        <v>108722.878302135</v>
       </c>
       <c r="W13" t="n">
-        <v>4220</v>
+        <v>4270</v>
       </c>
       <c r="X13" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="AA13" t="n">
-        <v>2340</v>
+        <v>2390</v>
       </c>
       <c r="AB13" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8425,7 +8545,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -8438,28 +8558,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>523967.901475</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>101965.350901675</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>44362.02901475001</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>422544.15</v>
+      </c>
+      <c r="AU13" t="n">
         <v>240200.0341610575</v>
       </c>
-      <c r="AS13" t="n">
-        <v>1034692.136537732</v>
+      <c r="AV13" t="n">
+        <v>883956.5779595989</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2346424.293512082</v>
       </c>
     </row>
     <row r="14">
@@ -8496,7 +8628,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>33</v>
@@ -8523,31 +8655,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>323787.0698262</v>
+        <v>938237.8301995057</v>
       </c>
       <c r="U14" t="n">
-        <v>50133.7854</v>
+        <v>133044.29432832</v>
       </c>
       <c r="V14" t="n">
-        <v>40412.33981381</v>
+        <v>112636.9623683174</v>
       </c>
       <c r="W14" t="n">
-        <v>4140</v>
+        <v>4190</v>
       </c>
       <c r="X14" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="AA14" t="n">
-        <v>2280</v>
+        <v>2330</v>
       </c>
       <c r="AB14" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8568,7 +8700,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -8581,28 +8713,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>523967.901475</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>101965.350901675</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>38947.6</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>44179.02901475001</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>422544.15</v>
+      </c>
+      <c r="AU14" t="n">
         <v>121401.0406389325</v>
       </c>
-      <c r="AS14" t="n">
-        <v>915710.1430156075</v>
+      <c r="AV14" t="n">
+        <v>1174649.272652382</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2518134.994682739</v>
       </c>
     </row>
     <row r="15">
@@ -8639,7 +8783,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>33</v>
@@ -8666,31 +8810,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>476757.6435462</v>
+        <v>1489366.843239939</v>
       </c>
       <c r="U15" t="n">
-        <v>73440.77768319999</v>
+        <v>221345.613022144</v>
       </c>
       <c r="V15" t="n">
-        <v>66269.66057574</v>
+        <v>191136.7088414928</v>
       </c>
       <c r="W15" t="n">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="X15" t="n">
-        <v>1440</v>
+        <v>1540</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>1440</v>
+        <v>1540</v>
       </c>
       <c r="AA15" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="AB15" t="n">
-        <v>720</v>
+        <v>1120</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -8711,7 +8855,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -8724,28 +8868,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>809144.36717</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>157651.64746565</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111712</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>127878.3873434</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>773120.8</v>
+      </c>
+      <c r="AU15" t="n">
         <v>152509.143235135</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1378544.557870785</v>
+      <c r="AV15" t="n">
+        <v>1963050.903717131</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4130882.648931316</v>
       </c>
     </row>
     <row r="16">
@@ -8782,7 +8938,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>33</v>
@@ -8809,31 +8965,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>485319.789859</v>
+        <v>1526364.786186957</v>
       </c>
       <c r="U16" t="n">
-        <v>74791.03392640001</v>
+        <v>226903.7522446464</v>
       </c>
       <c r="V16" t="n">
-        <v>67582.46285014</v>
+        <v>195967.3932012462</v>
       </c>
       <c r="W16" t="n">
-        <v>4380</v>
+        <v>4580</v>
       </c>
       <c r="X16" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="AA16" t="n">
-        <v>2460</v>
+        <v>2660</v>
       </c>
       <c r="AB16" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -8854,7 +9010,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -8867,28 +9023,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>809144.36717</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>157651.64746565</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>111895</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>128061.3873434</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>773120.8</v>
+      </c>
+      <c r="AU16" t="n">
         <v>177936.670703815</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1404155.085339465</v>
+      <c r="AV16" t="n">
+        <v>2041948.914899318</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4235391.187582183</v>
       </c>
     </row>
     <row r="17">
@@ -8925,7 +9093,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>33</v>
@@ -8952,31 +9120,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1145946.4429562</v>
+        <v>2774998.071621143</v>
       </c>
       <c r="U17" t="n">
-        <v>176548.5026998</v>
+        <v>407141.9463107617</v>
       </c>
       <c r="V17" t="n">
-        <v>180272.13924</v>
+        <v>385526.34363328</v>
       </c>
       <c r="W17" t="n">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="X17" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="AA17" t="n">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="AB17" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -8997,7 +9165,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9010,28 +9178,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1860704.45808</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>363161.1554628001</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>685692</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>760087.1783232</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1235259.1</v>
+      </c>
+      <c r="AU17" t="n">
         <v>236043.54867202</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3415605.91221482</v>
+      <c r="AV17" t="n">
+        <v>3093103.786518738</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7818363.977056758</v>
       </c>
     </row>
     <row r="18">
@@ -9068,7 +9248,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>33</v>
@@ -9095,31 +9275,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5714502.7460008</v>
+        <v>9876802.416390441</v>
       </c>
       <c r="U18" t="n">
-        <v>867645.497105</v>
+        <v>1399409.41371387</v>
       </c>
       <c r="V18" t="n">
-        <v>874320.80363466</v>
+        <v>1358441.715391966</v>
       </c>
       <c r="W18" t="n">
-        <v>5340</v>
+        <v>5540</v>
       </c>
       <c r="X18" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="AA18" t="n">
-        <v>3180</v>
+        <v>3380</v>
       </c>
       <c r="AB18" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9140,7 +9320,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -9153,28 +9333,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11322788.192</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>2201419.9316039</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2007622</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2913379.05536</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1811504.7</v>
+      </c>
+      <c r="AU18" t="n">
         <v>617834.2733206949</v>
       </c>
-      <c r="AS18" t="n">
-        <v>16744975.29692459</v>
+      <c r="AV18" t="n">
+        <v>7900304.182235352</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>27362541.23451995</v>
       </c>
     </row>
     <row r="19">
@@ -9211,7 +9403,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>33</v>
@@ -9238,31 +9430,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9303421.549135901</v>
+        <v>16889869.90715722</v>
       </c>
       <c r="U19" t="n">
-        <v>1412983.54426</v>
+        <v>2500480.12662064</v>
       </c>
       <c r="V19" t="n">
-        <v>1414382.69345246</v>
+        <v>2404433.890732192</v>
       </c>
       <c r="W19" t="n">
-        <v>6380</v>
+        <v>6580</v>
       </c>
       <c r="X19" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="AA19" t="n">
-        <v>3960</v>
+        <v>4160</v>
       </c>
       <c r="AB19" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9283,7 +9475,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -9296,28 +9488,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>18369856.08875</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>3570220.12981085</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3470670.6</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>6226025.2633125</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1811504.7</v>
+      </c>
+      <c r="AU19" t="n">
         <v>617834.273320695</v>
       </c>
-      <c r="AS19" t="n">
-        <v>27204461.49188155</v>
+      <c r="AV19" t="n">
+        <v>16218509.7973557</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>47989830.65254974</v>
       </c>
     </row>
     <row r="20">
@@ -9354,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>33</v>
@@ -9381,13 +9585,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>223110.62085975</v>
+        <v>229934.62085975</v>
       </c>
       <c r="U20" t="n">
-        <v>38936.48064749999</v>
+        <v>40011.48064749999</v>
       </c>
       <c r="V20" t="n">
-        <v>26190.58963936</v>
+        <v>27266.58963936</v>
       </c>
       <c r="W20" t="n">
         <v>1380</v>
@@ -9426,7 +9630,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -9439,28 +9643,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>550824.7193</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32682</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>3391.6015721</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>32982.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>20428.5</v>
+      </c>
+      <c r="AU20" t="n">
         <v>12908.20688172</v>
       </c>
-      <c r="AS20" t="n">
-        <v>647486.22775382</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>667914.72775382</v>
       </c>
     </row>
     <row r="21">
@@ -9497,7 +9709,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>33</v>
@@ -9524,13 +9736,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>294808.0899824</v>
+        <v>308892.6812184</v>
       </c>
       <c r="U21" t="n">
-        <v>48720.9720896</v>
+        <v>50963.2222976</v>
       </c>
       <c r="V21" t="n">
-        <v>37001.43654518</v>
+        <v>39164.15410718</v>
       </c>
       <c r="W21" t="n">
         <v>2060</v>
@@ -9569,7 +9781,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -9582,28 +9794,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>655149.36527</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49023</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>44986.31796835</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>65965.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>72508.8436527</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>35448.5</v>
+      </c>
+      <c r="AU21" t="n">
         <v>17274.674297075</v>
       </c>
-      <c r="AS21" t="n">
-        <v>851427.0575354251</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>893418.8011881249</v>
       </c>
     </row>
     <row r="22">
@@ -9640,7 +9860,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>33</v>
@@ -9667,31 +9887,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>417116.4693753</v>
+        <v>546542.8255008692</v>
       </c>
       <c r="U22" t="n">
-        <v>65750.30990925001</v>
+        <v>83938.96477815224</v>
       </c>
       <c r="V22" t="n">
-        <v>56353.37215332001</v>
+        <v>72314.87170185089</v>
       </c>
       <c r="W22" t="n">
-        <v>4020</v>
+        <v>4070</v>
       </c>
       <c r="X22" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="AA22" t="n">
-        <v>2340</v>
+        <v>2390</v>
       </c>
       <c r="AB22" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -9712,7 +9932,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -9725,28 +9945,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>832614.957595</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>109832.534713725</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>95470.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>103788.29957595</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>47878.35000000001</v>
+      </c>
+      <c r="AU22" t="n">
         <v>32699.70532199</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1208307.497630715</v>
+      <c r="AV22" t="n">
+        <v>291110.4475490972</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1555614.194755762</v>
       </c>
     </row>
     <row r="23">
@@ -9783,7 +10015,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>33</v>
@@ -9810,31 +10042,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>485789.21975685</v>
+        <v>708027.358359938</v>
       </c>
       <c r="U23" t="n">
-        <v>77173.6408128</v>
+        <v>111641.3499951936</v>
       </c>
       <c r="V23" t="n">
-        <v>68280.47377777999</v>
+        <v>96599.37127712453</v>
       </c>
       <c r="W23" t="n">
-        <v>4380</v>
+        <v>4580</v>
       </c>
       <c r="X23" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="AA23" t="n">
-        <v>2460</v>
+        <v>2660</v>
       </c>
       <c r="AB23" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -9855,7 +10087,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -9868,28 +10100,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>909587.050885</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>177258.855046525</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>150324</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>168499.2410177</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>87601.10000000001</v>
+      </c>
+      <c r="AU23" t="n">
         <v>43237.30965588</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1425078.065587405</v>
+      <c r="AV23" t="n">
+        <v>519522.651565135</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2050377.05817024</v>
       </c>
     </row>
     <row r="24">
@@ -9926,7 +10170,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>33</v>
@@ -9953,31 +10197,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>560941.6376</v>
+        <v>890171.6754448001</v>
       </c>
       <c r="U24" t="n">
-        <v>93132.8580142</v>
+        <v>144730.3888420114</v>
       </c>
       <c r="V24" t="n">
-        <v>83338.92900787</v>
+        <v>126739.2419364262</v>
       </c>
       <c r="W24" t="n">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="X24" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="AA24" t="n">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="AB24" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -9998,7 +10242,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10011,28 +10255,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1031119.172785</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>201084.790812625</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>255711.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>296922.9669114</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>139975.5</v>
+      </c>
+      <c r="AU24" t="n">
         <v>52271.7860956075</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1697667.199693233</v>
+      <c r="AV24" t="n">
+        <v>756017.532984497</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2634871.99958913</v>
       </c>
     </row>
     <row r="25">
@@ -10069,7 +10325,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>33</v>
@@ -10096,31 +10352,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>715205.9973715999</v>
+        <v>1520882.162126573</v>
       </c>
       <c r="U25" t="n">
-        <v>125993.843885</v>
+        <v>247521.701330505</v>
       </c>
       <c r="V25" t="n">
-        <v>113980.44489898</v>
+        <v>220545.1711356762</v>
       </c>
       <c r="W25" t="n">
-        <v>5340</v>
+        <v>5540</v>
       </c>
       <c r="X25" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="AA25" t="n">
-        <v>3180</v>
+        <v>3380</v>
       </c>
       <c r="AB25" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10141,7 +10397,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -10154,28 +10410,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1283810.1213</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>250518.4514784001</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>466485.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>569124.409704</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>205276.65</v>
+      </c>
+      <c r="AU25" t="n">
         <v>72443.25556883501</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2256325.078347235</v>
+      <c r="AV25" t="n">
+        <v>1951450.09728596</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4515690.635337196</v>
       </c>
     </row>
   </sheetData>
